--- a/data/02_intermediate/cleaned_Dany_Dan_songs.xlsx
+++ b/data/02_intermediate/cleaned_Dany_Dan_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Appelle-moi kilos de cocaïne dans le coffre d'un Merco Hardcore ! On peut pas plaire à tout le monde comme Marco ! C'est Tony Montana, Ali Pacino T'as ma parole c'est qui Bené, c'est qui Zé Pequeno ? Mon rap est planqué comme du bédo dans les couilles Illicite si tu pécho chez moi mec vas-y grouille Appelle-moi Carlos ou encore Pablo Numéro d'écrou écrit sur tous les tableaux Pour les affaires moi je fais la compta Si tu carottes mes thunes ça fera Ratatata Appelle-moi criminel tout comme Al Capone Secoue ta tête comme dans un sound system de Buju Banton Que tous les scarlas crient mon nom Alibi ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Ne m'appelle pas si tu trappelles pas mon nom Et quand jla baise dis à ta belle de ne plus m'appeler par ton nom ! Dis-lui c'est Nubi Sale Sale Moi je baise et je dis bye-bye tu vois le diez ? Sinon appelle-moi serval, mon instinct de fauve me dit de faire mal Coups de griffes verbal, roule lspliff d'herbe grasse Appelle-moi Bob Marley quand jviens parler de mes roots aux fils d'esclaves Appelle-moi Shaka Zulu évadé du champ de coton assoiffé du sang de colon Appelle-moi Swan chef des Warriors Appelle-moi ce soir si tu veux des versets hardcores ! You might also like Que tous les scarlas crient mon nom Nubi Sale ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Si tu parles mal tu peux m'appeler gifle sur la joue Tu peux crier mon nom jusqu'à prendre du sirop pour la toux Apelle-moi Nicky Larson, Biggie Appelle-moi Aniki, je reviens comme le phénix Appelle-moi Chevalier Ikki Appelle-moi pelle je te crève et je t'enterre Appelle-moi Cyrus le Virus quand j'ai les ailes de l'Enfer Appelle-moi Malcom X avec un gilet pare-balle Appelle-moi chicken wings à l'intérieur d'une gardav Mon rap vient d'ailleurs tu peux l'appeler E.T Appelle-moi la dixième balle qui va flinguer Fifty Appelle-moi Pépère le chat quand je peux j'fais glisser C'est mister O-L, dis pas la suite car tu sais qui c'est Que tous les scarlas crient mon nom Ol'Kainry ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Appelle-moi surprise les couilles à Vincent Mc Doom Appelle-moi crasseux dans les coulisses d'un McDo Appelle-moi coupé-décalé dans une boum du FN au Six Seven Et le physio c'est Ben Laden Appelle-moi Mahamadou dans la tribune des Boulogne Boys Pendant un choc PSG-Mali Appelle-moi Foued Ibrahim, braqueur bac10 Prof de maths et le soir j'bicrave du shit Appelle-moi Sefyu Molotov, Undercover, la muscul elle va avec Le gong sonne sans Salam oualeïkoum Jgoom cogne Pim Pam Poum et Salam oualeïkoum Que tous les scarlas crient mon nom Zahefyu ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Qui tu connais comme oim à part John Ross Junior ? Appelle-moi la crosse sortant d'un fut, personne ne m'ignore Appelle-moi jamais vu ou inédit Jordan ou Zinedine Pop Dan ou port d'arme mon flow devrait être interdit T'as rien compris si tu ne m'appelles pas le boss des boss Car la vie a fait de moi le parrain Dan est old school, jécris tous les jours Jlève l'encre tel un marin, j'reste propre même quand j'escroque Appelle Pop le malin Quand j'ai des soucis j'ai le cur noir, jsuis Adebisi Dan Même si je suis calme, lyrical, Gengis Khan Y a eu Jesse James, appelle-moi Jessy Dan Si Si man récital ! Jme barre peace Appelle-moi vessie dâne Que tous les scarlas crient mon nom Pop Dany ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo</t>
+          <t>Appelle-moi kilos de cocaïne dans le coffre d'un Merco Hardcore ! On peut pas plaire à tout le monde comme Marco ! C'est Tony Montana, Ali Pacino T'as ma parole c'est qui Bené, c'est qui Zé Pequeno ? Mon rap est planqué comme du bédo dans les couilles Illicite si tu pécho chez moi mec vas-y grouille Appelle-moi Carlos ou encore Pablo Numéro d'écrou écrit sur tous les tableaux Pour les affaires moi je fais la compta Si tu carottes mes thunes ça fera Ratatata Appelle-moi criminel tout comme Al Capone Secoue ta tête comme dans un sound system de Buju Banton Que tous les scarlas crient mon nom Alibi ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Ne m'appelle pas si tu trappelles pas mon nom Et quand jla baise dis à ta belle de ne plus m'appeler par ton nom ! Dis-lui c'est Nubi Sale Sale Moi je baise et je dis bye-bye tu vois le diez ? Sinon appelle-moi serval, mon instinct de fauve me dit de faire mal Coups de griffes verbal, roule lspliff d'herbe grasse Appelle-moi Bob Marley quand jviens parler de mes roots aux fils d'esclaves Appelle-moi Shaka Zulu évadé du champ de coton assoiffé du sang de colon Appelle-moi Swan chef des Warriors Appelle-moi ce soir si tu veux des versets hardcores ! Que tous les scarlas crient mon nom Nubi Sale ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Si tu parles mal tu peux m'appeler gifle sur la joue Tu peux crier mon nom jusqu'à prendre du sirop pour la toux Apelle-moi Nicky Larson, Biggie Appelle-moi Aniki, je reviens comme le phénix Appelle-moi Chevalier Ikki Appelle-moi pelle je te crève et je t'enterre Appelle-moi Cyrus le Virus quand j'ai les ailes de l'Enfer Appelle-moi Malcom X avec un gilet pare-balle Appelle-moi chicken wings à l'intérieur d'une gardav Mon rap vient d'ailleurs tu peux l'appeler E.T Appelle-moi la dixième balle qui va flinguer Fifty Appelle-moi Pépère le chat quand je peux j'fais glisser C'est mister O-L, dis pas la suite car tu sais qui c'est Que tous les scarlas crient mon nom Ol'Kainry ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Appelle-moi surprise les couilles à Vincent Mc Doom Appelle-moi crasseux dans les coulisses d'un McDo Appelle-moi coupé-décalé dans une boum du FN au Six Seven Et le physio c'est Ben Laden Appelle-moi Mahamadou dans la tribune des Boulogne Boys Pendant un choc PSG-Mali Appelle-moi Foued Ibrahim, braqueur bac10 Prof de maths et le soir j'bicrave du shit Appelle-moi Sefyu Molotov, Undercover, la muscul elle va avec Le gong sonne sans Salam oualeïkoum Jgoom cogne Pim Pam Poum et Salam oualeïkoum Que tous les scarlas crient mon nom Zahefyu ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo Qui tu connais comme oim à part John Ross Junior ? Appelle-moi la crosse sortant d'un fut, personne ne m'ignore Appelle-moi jamais vu ou inédit Jordan ou Zinedine Pop Dan ou port d'arme mon flow devrait être interdit T'as rien compris si tu ne m'appelles pas le boss des boss Car la vie a fait de moi le parrain Dan est old school, jécris tous les jours Jlève l'encre tel un marin, j'reste propre même quand j'escroque Appelle Pop le malin Quand j'ai des soucis j'ai le cur noir, jsuis Adebisi Dan Même si je suis calme, lyrical, Gengis Khan Y a eu Jesse James, appelle-moi Jessy Dan Si Si man récital ! Jme barre peace Appelle-moi vessie dâne Que tous les scarlas crient mon nom Pop Dany ! Jviens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui-même mavait mis au monde MC crie mon nom Shimmy Yo Shimmy Yo</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Demolition Ol' Ma voix t'fait baisser les yeux Si le ciel est un obstacle je défierai les dieux Défoncerai la grille, mate mes yeux brillent Tous les raps que je deal sont des shlass ou des mines Garçon fait gaffe avant d'prendre ton crom J'ai toujours pétardé de Crie mon nom à Pom Pom Pom Je change de flingue, j'ai pas le temps de poser mon arme La street mon arôme, debout pour honorer ma daronne Les corps durs comme les cousins du Bled Les phrases raides et je casse-ded les prod belles de Dave Daivery Le mic chargé j'ai pas perdu mon élan Le business est devenu gênant, tout ça ma rendu mélan' La faucheuse a voulu me guer-lan, j'ai ves-qui Tu veux test qui ? Moi mec sache que j'suis classé excellent Parait que le rap ne paie plus, donc on sort des tapes Les auditeurs ne rêvent plus comme les supporters des Lakers Tout le monde a des couilles, tout le monde est courageux Tout le monde fait tomber les douilles et tout le monde défouraille Tout le monde est caille-ra j't'épargnerai les détails La mode c'est rap, vends pas et la vérité est ailleurs On m'a accusé d'être trop rap, coupable j'ai plaidé J's'rai sûrement platinium si la street achetait des CDs J'suis dans mon monde, le rap ma passion mon métier Que tu grailles du porc, du caviar ou même des produits laitiers Qu'tu partes en été, que tu crânes que t'aimes t'la péter Qu'tu t'fasses arrêter ou même qu'tu te branles avec les pieds Que t'aies une boucle d'oreille dans les narines, que tu sniffes de la farine Ou qu'un salaud ait baisé ton amie Karine J'te respecterai si tu respectes ma musique Check moi de l'épaule si tu respectes ma musique Si t'as plus d'espoir c'est que t'es pas comme moi Si tu kiffes sur du Tragédie c'est que t'es pas comme moi Vous êtes en galère j'suis venu pour kill J'suis pas venu pour m'la ouej' j'suis pas venu pour chill Toute résistance est inutile, je lance un big up à Dany Et quelque paroles d'espoir tatouées sur mon body Car j't'ai d'jà dit j'veux le respect que j'mérite Honers l'Infame, Nubi, Unité, voilà la prochaine élite Dans ce game tellement de sales connasses C'est la guerre, All I need is one mic comme Nas You might also like Enfoiré j'avais pas nif, j'vais pétarder des anus Créer l'apocalypse impressionnant charisme J'te rappe clairement j'veux pas jouer l'aboyeur J'ai dit à Kodjo fais-moi le blé comme Jerry Maguire Pris plus d'une bastos que Fifty dans le dos Si j'bé-tom c'est un de mes potos qui défoncera ma go Vendra mes disques à ma place, mangera mes doses J'deviens fou comme mes tit-pe qui sortent les meu-ar à la go Les imposteurs devraient tous se taire Si on croise K-Maro on devrait tous se l'faire C'est pour les MCs qui sont tous sincères C'est la guerre demande à Ikbal tous mes soldats poussent le fer J'suis un Béninois qu'est né ici pas pour être sur le banc Pour être un grand et ma volonté se vérifie C'est pour mon hood, Évry Corbeil à Grigny 91 CNL, c'est Dyfrey, j'ai fini</t>
+          <t>Demolition Ol' Ma voix t'fait baisser les yeux Si le ciel est un obstacle je défierai les dieux Défoncerai la grille, mate mes yeux brillent Tous les raps que je deal sont des shlass ou des mines Garçon fait gaffe avant d'prendre ton crom J'ai toujours pétardé de Crie mon nom à Pom Pom Pom Je change de flingue, j'ai pas le temps de poser mon arme La street mon arôme, debout pour honorer ma daronne Les corps durs comme les cousins du Bled Les phrases raides et je casse-ded les prod belles de Dave Daivery Le mic chargé j'ai pas perdu mon élan Le business est devenu gênant, tout ça ma rendu mélan' La faucheuse a voulu me guer-lan, j'ai ves-qui Tu veux test qui ? Moi mec sache que j'suis classé excellent Parait que le rap ne paie plus, donc on sort des tapes Les auditeurs ne rêvent plus comme les supporters des Lakers Tout le monde a des couilles, tout le monde est courageux Tout le monde fait tomber les douilles et tout le monde défouraille Tout le monde est caille-ra j't'épargnerai les détails La mode c'est rap, vends pas et la vérité est ailleurs On m'a accusé d'être trop rap, coupable j'ai plaidé J's'rai sûrement platinium si la street achetait des CDs J'suis dans mon monde, le rap ma passion mon métier Que tu grailles du porc, du caviar ou même des produits laitiers Qu'tu partes en été, que tu crânes que t'aimes t'la péter Qu'tu t'fasses arrêter ou même qu'tu te branles avec les pieds Que t'aies une boucle d'oreille dans les narines, que tu sniffes de la farine Ou qu'un salaud ait baisé ton amie Karine J'te respecterai si tu respectes ma musique Check moi de l'épaule si tu respectes ma musique Si t'as plus d'espoir c'est que t'es pas comme moi Si tu kiffes sur du Tragédie c'est que t'es pas comme moi Vous êtes en galère j'suis venu pour kill J'suis pas venu pour m'la ouej' j'suis pas venu pour chill Toute résistance est inutile, je lance un big up à Dany Et quelque paroles d'espoir tatouées sur mon body Car j't'ai d'jà dit j'veux le respect que j'mérite Honers l'Infame, Nubi, Unité, voilà la prochaine élite Dans ce game tellement de sales connasses C'est la guerre, All I need is one mic comme Nas Enfoiré j'avais pas nif, j'vais pétarder des anus Créer l'apocalypse impressionnant charisme J'te rappe clairement j'veux pas jouer l'aboyeur J'ai dit à Kodjo fais-moi le blé comme Jerry Maguire Pris plus d'une bastos que Fifty dans le dos Si j'bé-tom c'est un de mes potos qui défoncera ma go Vendra mes disques à ma place, mangera mes doses J'deviens fou comme mes tit-pe qui sortent les meu-ar à la go Les imposteurs devraient tous se taire Si on croise K-Maro on devrait tous se l'faire C'est pour les MCs qui sont tous sincères C'est la guerre demande à Ikbal tous mes soldats poussent le fer J'suis un Béninois qu'est né ici pas pour être sur le banc Pour être un grand et ma volonté se vérifie C'est pour mon hood, Évry Corbeil à Grigny 91 CNL, c'est Dyfrey, j'ai fini</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Well Retour dans les jours où je m'cherchais un nom Un blaze de barge un truc dangereux Un nom d'guerre, bien avant les blondes bières Les spliffs et tous les vices Gamin entre douze et dix Ma bombe de peinture rouge écrivait tous mes titres Dany Dan n'est venu qu'après moult nuits Je m'souviens d'avoir fait le mur car j'étais tout petit J'ai sonné chez Zox J'ai dit j'ai trouvé mon patronyme Appelle moi Dany Mac, car j'les tombe comme des gouttes de pluie J'les pète et les boxe Il m'a dit appelle-moi Lou Ferrigno, Aquaman, Octopus Akbar, Alcorn non Actarus J'ai dit dans ce cas appelle moi Le Coq braquant ta tête Quand j'flow, je vole tu peux m'appeler le passager 57 Il m'a dit appelle-moi Nino Brown avec la canne et le iench J'ai dit ok donc appelle-moi Gee Money, j'ai le style et le linge Tout c'la à travers l'interphone, sa mere nous a coupés J'suis rentré chez moi, à l'époque y'avait pas d'téléphone Que tous les scarlas crient mon nom Pop Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo You might also like Tu peux m'appeler Mackey, Vic pour ceux qui savent J'ai mes indics dans les caves, et je nique ceux qui bavent Appelle moi Mike Donovan, cours vite pas de pénitence Tu flippes de la résistance, voici Ol' et Dan Anakin Les ladies compare son sabre laser à la longueur de ma pine Appelle-moi Magnum, Cobra, Wolverine Mec j'ai trop de noms Appelle-moi Sangoku niveau 4 avec les cheveux longs Toujours classe, Got Gunz écrit sur mon Teddy Appelle-moi Baron Davis ou Tracy Mc Grady Appelle-moi Freddy Fox, appelle-moi Jamie Foxx Appelle-moi Freddy Ali, mes mots t'boxent Appelle-moi Freddy Krueger Criminel depuis l'enfance, j'plantais des gamins avec des crayons de couleur Schumacher dans ma life, je ne fais qu'aller vite Appelle-moi Zinedine Zidane en 98 Que tous les scarlas crient mon nom Pop Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Appelle-moi Nas à 19 piges dans sa chambre en train d'écrire Ou bien Bob Marley dans Kingston s'allumant un sbire Quand j'roule avec Moda, je m'sens puissant comme Dark Vador Mon nègre l'est tout autant donc tu peux l'appeler Yoda Tu peux m'appeler Seedorf, un renoi qui pète au Milan Appelle-moi Christopher Wallace aujourd'hui encore vivant Ou Mike Tyson, avec le cerveau d'un docteur Appelle-moi fusil à pompe avec un grand cur Appelle-moi Chaka Zulu, innovant dans l'art du combat Joël Bats, avec moi les mecs ne marqueront pas Technique de l'homme saoul, ils ne comprennent pas mon drunken flow J'suis Jackie Chan avec le sens des mots Appelle-moi M. Smith, je suis cent je suis des milliers Appelle-moi Tong Pô quand il s'entraine sur le pilier Appelle-moi enfoiré, j'ai baisé ton plan Appelle-moi Bruce Lee, une fois qu'il a léché son sang Que tous les scarlas crient mon nom Pope Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo</t>
+          <t>Well Retour dans les jours où je m'cherchais un nom Un blaze de barge un truc dangereux Un nom d'guerre, bien avant les blondes bières Les spliffs et tous les vices Gamin entre douze et dix Ma bombe de peinture rouge écrivait tous mes titres Dany Dan n'est venu qu'après moult nuits Je m'souviens d'avoir fait le mur car j'étais tout petit J'ai sonné chez Zox J'ai dit j'ai trouvé mon patronyme Appelle moi Dany Mac, car j'les tombe comme des gouttes de pluie J'les pète et les boxe Il m'a dit appelle-moi Lou Ferrigno, Aquaman, Octopus Akbar, Alcorn non Actarus J'ai dit dans ce cas appelle moi Le Coq braquant ta tête Quand j'flow, je vole tu peux m'appeler le passager 57 Il m'a dit appelle-moi Nino Brown avec la canne et le iench J'ai dit ok donc appelle-moi Gee Money, j'ai le style et le linge Tout c'la à travers l'interphone, sa mere nous a coupés J'suis rentré chez moi, à l'époque y'avait pas d'téléphone Que tous les scarlas crient mon nom Pop Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Tu peux m'appeler Mackey, Vic pour ceux qui savent J'ai mes indics dans les caves, et je nique ceux qui bavent Appelle moi Mike Donovan, cours vite pas de pénitence Tu flippes de la résistance, voici Ol' et Dan Anakin Les ladies compare son sabre laser à la longueur de ma pine Appelle-moi Magnum, Cobra, Wolverine Mec j'ai trop de noms Appelle-moi Sangoku niveau 4 avec les cheveux longs Toujours classe, Got Gunz écrit sur mon Teddy Appelle-moi Baron Davis ou Tracy Mc Grady Appelle-moi Freddy Fox, appelle-moi Jamie Foxx Appelle-moi Freddy Ali, mes mots t'boxent Appelle-moi Freddy Krueger Criminel depuis l'enfance, j'plantais des gamins avec des crayons de couleur Schumacher dans ma life, je ne fais qu'aller vite Appelle-moi Zinedine Zidane en 98 Que tous les scarlas crient mon nom Pop Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Appelle-moi Nas à 19 piges dans sa chambre en train d'écrire Ou bien Bob Marley dans Kingston s'allumant un sbire Quand j'roule avec Moda, je m'sens puissant comme Dark Vador Mon nègre l'est tout autant donc tu peux l'appeler Yoda Tu peux m'appeler Seedorf, un renoi qui pète au Milan Appelle-moi Christopher Wallace aujourd'hui encore vivant Ou Mike Tyson, avec le cerveau d'un docteur Appelle-moi fusil à pompe avec un grand cur Appelle-moi Chaka Zulu, innovant dans l'art du combat Joël Bats, avec moi les mecs ne marqueront pas Technique de l'homme saoul, ils ne comprennent pas mon drunken flow J'suis Jackie Chan avec le sens des mots Appelle-moi M. Smith, je suis cent je suis des milliers Appelle-moi Tong Pô quand il s'entraine sur le pilier Appelle-moi enfoiré, j'ai baisé ton plan Appelle-moi Bruce Lee, une fois qu'il a léché son sang Que tous les scarlas crient mon nom Pope Dany J'viens kicker mon nom, représenter mon nom, je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo Que tous les scarlas crient mon nom Ol' Kainry J'viens kicker mon nom, représenter mon nom Je suis violent sur le violon Comme si le rap lui même m'avait mis au monde MC crie mon nom Shimmy Yo, Shimmy Yo</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Certaines choses ne changeront jamais Presque chaque fois qu'ils montrent un délinquant aux infos, il n'est pas rose mais marron foncé Comme la plupart des éboueurs, ouvriers, mainteneurs Comme si venir d'Afrique t'orientait vers de basses-uvres J'ai plein de preuves de c'que j'avance, mais j'le dis comme je sens Les prisons sont pleines de mes frères de sang Et on se méfie toujours de moi, les vieilles changent de trottoir Et dans le tro-mé, se mettent à coté qu'lorsqu'elles n'ont pas d'autre choix Sommes-nous damnés ou bien maudits Il parait que les derniers seront les premiers Dites-moi quand et où, sûrement pas aujourd'hui, sûrement pas dans ce siècle, encore moins ce pays Mais je suis fier d'appartenir à ce peuple, vas-y Freddy Dans l'espoir d'voir des merveilles, ancêtres, pères, mères J'lâche une grosse pensée pour la terre mère Puis j'écris ses lignes comme les dernières Les mains jointes, à genoux, dirigé vers l'éternel Sous mon armure, y'a mon cur et mes sentiments J'la sens qui souffre en silence, j'rappe pour mon continent Et la douleur ne se démode plus Un noir affamé à la télé ça ne choque plus Tout ça me déprime et me torture L'histoire et ses morsures, un putain de monde tordu L'Afrique se sent seule et n'a plus d'amis Donne de l'espoir comme t'en a donné au tsunami You might also like Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Va savoir pourquoi le sort s'acharne, la mort s'empare encore d'une âme Le corps part en poussière, j'me demande où tu vas quand tu cannes J'entends les statistiques genre Toutes les 30 secondes en Afrique un gosse succombe de famine, de maladie S'il existe, iront-ils au paradis? J'aimerais croire qu'ils grandissent avec des ailes et que l'un d'eux veille sur moi ici Mais tu sais que ce n'est pas possible, regarde les homicides Un noir tue un noir chaque jour, que Dieu fait, et chaque nuit Situation niquée et escalier pisseux Monsieur l'huissier sonne, t'ouvres et il est déjà dédaigneux Grosse Benz décapotable, chapeau, lunettes, le son à fond et direct les flics t'arrêtent Pourquoi aucun africain à la télé chaque soir? Tu me parles de qui? Soit de Charlie, soit de Magloire Alors on rame, pour gagner des batailles Faut plus de Thuram beaucoup moins de Desailly Et toutes ces conneries continuent dans les stades Samuel Eto'o, ils l'ont pris pour Amistad Quant à nous on revendique notre dignité Serrons-nous les coudes, nous existeront dans l'unité J'vois la douleur de mon bled en flash comme Kodak Fier d'être kainfry signifie pas être un pro-black Il faut qu'on comprenne, l'Afrique est à la traine Je veux la voir briller donc je rime que je l'aime Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Qu'on soit éloignés de nos racines Ou éloignés de nos pays On reste africains, africains, africains Fier d'être kainfry Et les larmes du soleil coulent Tout mon continent veut guérir On reste africains, africains, africains Fier d'être kainfry Et même si dans leur regard Ils voyent notre culture comme un délit On reste africains, africains, africains Fier d'être kainfry Je veux tant la voir briller Et je veux nous voir unis On est africains, africains, africains Fier d'être kainfry On est africains, africains, africains...</t>
+          <t>Certaines choses ne changeront jamais Presque chaque fois qu'ils montrent un délinquant aux infos, il n'est pas rose mais marron foncé Comme la plupart des éboueurs, ouvriers, mainteneurs Comme si venir d'Afrique t'orientait vers de basses-uvres J'ai plein de preuves de c'que j'avance, mais j'le dis comme je sens Les prisons sont pleines de mes frères de sang Et on se méfie toujours de moi, les vieilles changent de trottoir Et dans le tro-mé, se mettent à coté qu'lorsqu'elles n'ont pas d'autre choix Sommes-nous damnés ou bien maudits Il parait que les derniers seront les premiers Dites-moi quand et où, sûrement pas aujourd'hui, sûrement pas dans ce siècle, encore moins ce pays Mais je suis fier d'appartenir à ce peuple, vas-y Freddy Dans l'espoir d'voir des merveilles, ancêtres, pères, mères J'lâche une grosse pensée pour la terre mère Puis j'écris ses lignes comme les dernières Les mains jointes, à genoux, dirigé vers l'éternel Sous mon armure, y'a mon cur et mes sentiments J'la sens qui souffre en silence, j'rappe pour mon continent Et la douleur ne se démode plus Un noir affamé à la télé ça ne choque plus Tout ça me déprime et me torture L'histoire et ses morsures, un putain de monde tordu L'Afrique se sent seule et n'a plus d'amis Donne de l'espoir comme t'en a donné au tsunami Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Va savoir pourquoi le sort s'acharne, la mort s'empare encore d'une âme Le corps part en poussière, j'me demande où tu vas quand tu cannes J'entends les statistiques genre Toutes les 30 secondes en Afrique un gosse succombe de famine, de maladie S'il existe, iront-ils au paradis? J'aimerais croire qu'ils grandissent avec des ailes et que l'un d'eux veille sur moi ici Mais tu sais que ce n'est pas possible, regarde les homicides Un noir tue un noir chaque jour, que Dieu fait, et chaque nuit Situation niquée et escalier pisseux Monsieur l'huissier sonne, t'ouvres et il est déjà dédaigneux Grosse Benz décapotable, chapeau, lunettes, le son à fond et direct les flics t'arrêtent Pourquoi aucun africain à la télé chaque soir? Tu me parles de qui? Soit de Charlie, soit de Magloire Alors on rame, pour gagner des batailles Faut plus de Thuram beaucoup moins de Desailly Et toutes ces conneries continuent dans les stades Samuel Eto'o, ils l'ont pris pour Amistad Quant à nous on revendique notre dignité Serrons-nous les coudes, nous existeront dans l'unité J'vois la douleur de mon bled en flash comme Kodak Fier d'être kainfry signifie pas être un pro-black Il faut qu'on comprenne, l'Afrique est à la traine Je veux la voir briller donc je rime que je l'aime Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Si je ne le fais pas qui le fera pour moi? Si je ne suis pas qui le sera pour moi? Je reste fier d'être africain, africain, africain Fier d'être kainfry Qu'on soit éloignés de nos racines Ou éloignés de nos pays On reste africains, africains, africains Fier d'être kainfry Et les larmes du soleil coulent Tout mon continent veut guérir On reste africains, africains, africains Fier d'être kainfry Et même si dans leur regard Ils voyent notre culture comme un délit On reste africains, africains, africains Fier d'être kainfry Je veux tant la voir briller Et je veux nous voir unis On est africains, africains, africains Fier d'être kainfry On est africains, africains, africains...</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Avec moi en freestyle, j'suis certain de vous choquer Bestial en doggystyle je met la ficelle sur le côté Avec moi c'est toujours opé Et si tu me braques ou veux me coller un smack, je briserais tes pattes et tu seras bloqué A la Dikembe Mutombo ou Ben Wallace, que des thèmes salaces Je n'fais que des belles balafres Avec moi, que du bruit, des grosses basses et du larsen C'est super-scarla, moi j'ai pé-ta des Clark Kent Toc-toc, c'est qui? Dyfrey, CNL city Petit, j'ai porté le marcel avant Fifty Avec moi tu vas crier mon nom J'ai la gouache de Tyson à 17 piges et la précision de Juninho Pour moi c'est clair, tout mes rivaux vont se taire Même en baisse de tension, je sais que mes rimes vont te plaire Avec moi c'est boites automatiques, black sunglasses Une go me caressant la bite, pas de grâce pour les racistes Quand j'prend le mic', tout les frères feraient mieux de se taire Avec moi les fractures pleuvent, les os s'cassent, les clavicules pètent Les cartilages fondent, les basses rompent, les curs s'arrêtent Et le boss gronde tellement que les keufs m'arrêtent Avec moi c'est l'saut de l'ange, perpétuellement le bord de falaise J'sors du taff' et bringue fort comme si j'sortais d'calèche Et les go's m'ont à la bonne Car stars et bandits viennent me check genre Dany Dan, yo ton stylo pèse une tonne Avec moi c'est avant-gardisme, pas d'vantardise J'suis calme, j'parle pas beaucoup, lâche moi ça m'rend service Cumulus et brouillard dans la pièce se forment Car avec moi c'est fines herbes, yeux rouges et verre de rhum Ne t'laisses pas bluffer par mon blanc d'il pourpre J'suis smooth vraiment, mais j'ai toutes mes dents comme une nouvelle paire de boots Et je mord que César lève ou bien baisse le pouce Car avec moi dans l'arène, il pleut de la merde en bouse You might also like Avec moi c'est genre j'tire au gun, toi tu tires à l'arc Hardcore comme se faire sucer par un piranha J'continue, vous allez vite capter Comme un interrogatoire seul avec Vic Mackey Même si les rivaux ont mis le paquet Et que la plupart serre les filles, font des billes avec des styles claqués On aura toujours le barreau car le rap est dead sans Ol' et Dany Indispensable comme Heinze ou M'Bami Et dans mon propre coin, mes frères deviennent trop jaloux Mais savent que me test' c'est mettre sa tête dans un piège à loup Poto j'espère que tu comprends le tout, mon rap te prend par le cou Et te tacle avec des crampons en clou Pervers caché, mon choco fait de l'effet Ol'Kainry Lexington, Rocco Sedifrey Avec moi un soda suffit, pour Dan ou bien en canette Voila les deux enfoirés les plus dingues de la planète Dan n'est pas du genre à faiblir C'est prendre un aller simple quand je rime car tu ne vas pas en revenir Mair je t'avertis rect-di, mon flow a une décennie et demie Pas de compet', j'suis mon pire ennemi Avec moi le doute, pas que Les jours sombres n'existeront jamais sans me promettre de prochains jours radieux Avec moi c'est micro HF, le disque tu l'achète Même après l'avoir téléchargé, juste pour la pochette Car avec moi c'est graffiti, taf' pas de pauses pipi J'ai le flow missile, j'explose ici Donc fait gaffe quand je passe en cabine J'suis intouchable comme le pape dans la papamobile Rêve de luxure et d'excès, de luxe, de succès Voir les autres flairs me bouffer me rendait plus que frustré Avec moi y'a danger lorsque je suis juste offusqué Méfiez vous malgré mon buste peu musclé Avec moi quand j'kicke c'est un pointard boulard Certains MC's sont hantés de me croiser dans un couloir Dur d'en arriver là, les mecs ont tellement la dalle Ils se branlent avec de la crème Nivea Bang-bang, placka-placka, on vient tirer dans ta tess' Et tu sautes dans le crachat et le caca Avec moi c'est pas la peine, les mecs sont à la traine ...</t>
+          <t>Avec moi en freestyle, j'suis certain de vous choquer Bestial en doggystyle je met la ficelle sur le côté Avec moi c'est toujours opé Et si tu me braques ou veux me coller un smack, je briserais tes pattes et tu seras bloqué A la Dikembe Mutombo ou Ben Wallace, que des thèmes salaces Je n'fais que des belles balafres Avec moi, que du bruit, des grosses basses et du larsen C'est super-scarla, moi j'ai pé-ta des Clark Kent Toc-toc, c'est qui? Dyfrey, CNL city Petit, j'ai porté le marcel avant Fifty Avec moi tu vas crier mon nom J'ai la gouache de Tyson à 17 piges et la précision de Juninho Pour moi c'est clair, tout mes rivaux vont se taire Même en baisse de tension, je sais que mes rimes vont te plaire Avec moi c'est boites automatiques, black sunglasses Une go me caressant la bite, pas de grâce pour les racistes Quand j'prend le mic', tout les frères feraient mieux de se taire Avec moi les fractures pleuvent, les os s'cassent, les clavicules pètent Les cartilages fondent, les basses rompent, les curs s'arrêtent Et le boss gronde tellement que les keufs m'arrêtent Avec moi c'est l'saut de l'ange, perpétuellement le bord de falaise J'sors du taff' et bringue fort comme si j'sortais d'calèche Et les go's m'ont à la bonne Car stars et bandits viennent me check genre Dany Dan, yo ton stylo pèse une tonne Avec moi c'est avant-gardisme, pas d'vantardise J'suis calme, j'parle pas beaucoup, lâche moi ça m'rend service Cumulus et brouillard dans la pièce se forment Car avec moi c'est fines herbes, yeux rouges et verre de rhum Ne t'laisses pas bluffer par mon blanc d'il pourpre J'suis smooth vraiment, mais j'ai toutes mes dents comme une nouvelle paire de boots Et je mord que César lève ou bien baisse le pouce Car avec moi dans l'arène, il pleut de la merde en bouse Avec moi c'est genre j'tire au gun, toi tu tires à l'arc Hardcore comme se faire sucer par un piranha J'continue, vous allez vite capter Comme un interrogatoire seul avec Vic Mackey Même si les rivaux ont mis le paquet Et que la plupart serre les filles, font des billes avec des styles claqués On aura toujours le barreau car le rap est dead sans Ol' et Dany Indispensable comme Heinze ou M'Bami Et dans mon propre coin, mes frères deviennent trop jaloux Mais savent que me test' c'est mettre sa tête dans un piège à loup Poto j'espère que tu comprends le tout, mon rap te prend par le cou Et te tacle avec des crampons en clou Pervers caché, mon choco fait de l'effet Ol'Kainry Lexington, Rocco Sedifrey Avec moi un soda suffit, pour Dan ou bien en canette Voila les deux enfoirés les plus dingues de la planète Dan n'est pas du genre à faiblir C'est prendre un aller simple quand je rime car tu ne vas pas en revenir Mair je t'avertis rect-di, mon flow a une décennie et demie Pas de compet', j'suis mon pire ennemi Avec moi le doute, pas que Les jours sombres n'existeront jamais sans me promettre de prochains jours radieux Avec moi c'est micro HF, le disque tu l'achète Même après l'avoir téléchargé, juste pour la pochette Car avec moi c'est graffiti, taf' pas de pauses pipi J'ai le flow missile, j'explose ici Donc fait gaffe quand je passe en cabine J'suis intouchable comme le pape dans la papamobile Rêve de luxure et d'excès, de luxe, de succès Voir les autres flairs me bouffer me rendait plus que frustré Avec moi y'a danger lorsque je suis juste offusqué Méfiez vous malgré mon buste peu musclé Avec moi quand j'kicke c'est un pointard boulard Certains MC's sont hantés de me croiser dans un couloir Dur d'en arriver là, les mecs ont tellement la dalle Ils se branlent avec de la crème Nivea Bang-bang, placka-placka, on vient tirer dans ta tess' Et tu sautes dans le crachat et le caca Avec moi c'est pas la peine, les mecs sont à la traine ...</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J'suis dans mon propre délire Dans mon propre délire Dans mon- dans mon propre délire Dans mon propre délire J'suis dans mon propre délire Dans mon propre délire Dans mon propre délire, tu connais ma signature Han Tito pow, Tito Power J'ai une nature différente de tout c'qu'il y a dans la masse Pas arrogant j'ai juste autant d'assurance que la MAAF J'hésite à mentionner le nom de ma planète comme Bruno Mars J'finis le game frappe la bête et ressort l'anomalie C't'année j'suis productif autant qu'un père de famille du Mali J'viens pas juste kicker mais convertir tes poches lobby J'peux pas vendre mon âme j'vendrai jamais un proche, homie Hey yo mon rap c'est un harcèlement textuel Biggie Le tien s'adresse qu'aux homosexuels Ziggy Les renois passent du R'n'b au ke-zou, de la barrette au ze-dou Du Hip-hop Grand Pope Ikki Mais quoi de neuf niggaz' Rien de neuf ça gaze T'es une XXX bitches dans le game ça jase Les problèmes divisent, les jeunes oublient la base Balance les sentiment s'déguisent, les sangsues aiment la vase You might also like Hey yo me raconte pas ta vie, j'ai ma carabine J'suis à se-l'ai dans le carré VIP ou pépère à l'asile 'Vec une belle gadji dans la Jeep nettoie moi la vitre Faut qu'tu te canalise, Daivery pas Mustard on the beat J'suis un an-ienc' tes exs me connaissent sirotent un Cognac Ta grognasse avec ses gros eins veut faire des folies Avec Boug Dif Goliath, dique-sa insomniaque Dans mon propre délire tu connais l'homme qui grandit ap' J'suis dans mon propre délire, tu connais Daniel Parfois je me sens comme un pèlerin dans un désert de sel T'laisse pas bluffer par ma nonchalance Car ouais je glisse mais c'est plus comme un skieur pourchassé par une avalanche Et peu à peu la folie s'installe Le mic et moi deux éternels amants criminels BonnieAndClyde Adolescent dès que je le pouvais je sautais sur tout mic Appliquant la théorie des 7 jours de 2Pac Le rap français c'est des grillz faits en papier alu J'hallucine des MCs s'allument sort des disques comme à l'usine J'attends pas qu'on m'élise j'me suis auto-élu J'suis dans mon propre délire ça c'est depuis le début Certains m'ont dit Disiz, t'as besoin de conseils ? Mais dis moi à quoi ça sert d'éclairer le Soleil ? Qui dit pire marié à 19 j'passe le bac à 30 Des albums j'en ai neuf en 12 ans j'fais quatre enfants Sponsorisé par les pompes funèbres, j'fais un pull avec un sac mortuaire Véhicule mes idées les autres font du vol à la portière J'suis grosse une cylindrée je crache c'est pas comestible Marié au beat, je rap, c'est d'la violence domestique Ressort le break beat pour ceux qui connaissent Appelle moi la famille j'vous fume comme Dupont de Ligonnès Du plomb j'lâche sous leurs pieds l'herbe je viens couper Dans le top 5 du 9-5 j'ai toujours pas écrit mon meilleur couplet2</t>
+          <t>J'suis dans mon propre délire Dans mon propre délire Dans mon- dans mon propre délire Dans mon propre délire J'suis dans mon propre délire Dans mon propre délire Dans mon propre délire, tu connais ma signature Han Tito pow, Tito Power J'ai une nature différente de tout c'qu'il y a dans la masse Pas arrogant j'ai juste autant d'assurance que la MAAF J'hésite à mentionner le nom de ma planète comme Bruno Mars J'finis le game frappe la bête et ressort l'anomalie C't'année j'suis productif autant qu'un père de famille du Mali J'viens pas juste kicker mais convertir tes poches lobby J'peux pas vendre mon âme j'vendrai jamais un proche, homie Hey yo mon rap c'est un harcèlement textuel Biggie Le tien s'adresse qu'aux homosexuels Ziggy Les renois passent du R'n'b au ke-zou, de la barrette au ze-dou Du Hip-hop Grand Pope Ikki Mais quoi de neuf niggaz' Rien de neuf ça gaze T'es une XXX bitches dans le game ça jase Les problèmes divisent, les jeunes oublient la base Balance les sentiment s'déguisent, les sangsues aiment la vase Hey yo me raconte pas ta vie, j'ai ma carabine J'suis à se-l'ai dans le carré VIP ou pépère à l'asile 'Vec une belle gadji dans la Jeep nettoie moi la vitre Faut qu'tu te canalise, Daivery pas Mustard on the beat J'suis un an-ienc' tes exs me connaissent sirotent un Cognac Ta grognasse avec ses gros eins veut faire des folies Avec Boug Dif Goliath, dique-sa insomniaque Dans mon propre délire tu connais l'homme qui grandit ap' J'suis dans mon propre délire, tu connais Daniel Parfois je me sens comme un pèlerin dans un désert de sel T'laisse pas bluffer par ma nonchalance Car ouais je glisse mais c'est plus comme un skieur pourchassé par une avalanche Et peu à peu la folie s'installe Le mic et moi deux éternels amants criminels BonnieAndClyde Adolescent dès que je le pouvais je sautais sur tout mic Appliquant la théorie des 7 jours de 2Pac Le rap français c'est des grillz faits en papier alu J'hallucine des MCs s'allument sort des disques comme à l'usine J'attends pas qu'on m'élise j'me suis auto-élu J'suis dans mon propre délire ça c'est depuis le début Certains m'ont dit Disiz, t'as besoin de conseils ? Mais dis moi à quoi ça sert d'éclairer le Soleil ? Qui dit pire marié à 19 j'passe le bac à 30 Des albums j'en ai neuf en 12 ans j'fais quatre enfants Sponsorisé par les pompes funèbres, j'fais un pull avec un sac mortuaire Véhicule mes idées les autres font du vol à la portière J'suis grosse une cylindrée je crache c'est pas comestible Marié au beat, je rap, c'est d'la violence domestique Ressort le break beat pour ceux qui connaissent Appelle moi la famille j'vous fume comme Dupont de Ligonnès Du plomb j'lâche sous leurs pieds l'herbe je viens couper Dans le top 5 du 9-5 j'ai toujours pas écrit mon meilleur couplet2</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Blague à part, j'suis un black à part, j'avance pas à pas M'accapare le gâteau, petit donne-moi ta part Regard noir et vêtements sombres, je poursuis ma proie Qui n'me voie pas, vu que j'guette dans l'ombre J'suis prêt et va y avoir dra' Si ce petit blaireau veut jouer les héros, il va y avoir droit Écoute boy, si tu t'en sors ce sera un coup d'bol Pour lui faire comprendre j'mets un coup d'crosse Là j'lui ai ouvert le front Et puis j'lui ai dit file vers le font, ça t'fera passer l'envie d'faire le con J'suis parti avec la mallette pleine de galettes Et j'recommencerai à moins qu'une balle en pleine tête ne marrête Mains en l'air, face contre terre, mets tout l'liquide dans l'sac Mets ta casquette, ta chaîne et ta bague de fiançailles J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'ai le coffret DVD de Body Talk Caché dans ma breuch, derrière mes CDs hip-hop J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard You might also like Sexuel dans mes paragraphes, on s'allonge Mais j'n'ai pas de drap, pas d'pote-ca, j'ai mis du sparadrap Et j'la pine avec la dalle d'un taulard Soudain elle ressent la puissance de lanaconda T'inquiète baby love, il n'va pas te broyer Que du bonheur, que du kiff, il va t'faire aboyer Tu vas filer dans les cieux, j'suis un bisounours Rocco Siffredi, tu prends ton pied dans mon pieux Jolly Jumper, mister trampoline On fait une pause à chaque heure, faut qu'tu prennes ta ventoline On va l'faire, comme si demain c'était notre tour de crever Fermons les volets pour ne pas voir le jour se lever J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard On m'a pistonné, livreur de pizzas à toute heure J'suis revenu trois heures après avec la roue du scooter Putain, dans les taffs j'ai la poisse à mes trousses On aurait dit qu'elle veut à tout prix que j'l'épouse J'ai même taffé au McDo en scred Le client qui prenait la grosse tete j'crachais dans son steak Ils m'ont viré d'Franprix près du rayon desserts Parce que j'volais pour mes potes, et j'accusais les caissières J'ai fais cuistot mais c'est pas ça qui m'passionne J'ai failli découper l'chef dans une petite casserole Cousin, j'te jure la chance m'endort sur son coussin Tout ça me pousse à faire des sous en douce J'ai essayé d'travailler, les emplois-jeunes m'empoisonnent J'rappe jusqu'à c'que ça pète dans ta zone J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard Mon style vient d'un autre siècle mais n'est pas obsolètes Tu peux l'appeler jurassique mais j'serai l'Raptor ou le T-rex J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard J'en ai vu passer des têtes, j'ai commencé y a quelques années Solo, Squat venaient d'trouver la formule secrète Les new generation mc's et EJM Tenaient le haut du pavé, Daddy Yod pétait la FM Rivalité NordSud, Dany j'en avais seize La première fois qu'j'ai entendu quelqu'un crier 93 Cinquante négros métro gare du Nord La plupart d'entre eux aujourd'hui sont riches Videurs, morts ou gardes du corps J'me faufilais entre eux, les plus gangsters étaient mes héros J'en ai vu s'la donner un contre huit au Trocadéro À la mode t'avais les Stan Smith, chaussettes Burlington et Burberry J'espère être encore là jusqu'en 2010 J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard1</t>
+          <t>Blague à part, j'suis un black à part, j'avance pas à pas M'accapare le gâteau, petit donne-moi ta part Regard noir et vêtements sombres, je poursuis ma proie Qui n'me voie pas, vu que j'guette dans l'ombre J'suis prêt et va y avoir dra' Si ce petit blaireau veut jouer les héros, il va y avoir droit Écoute boy, si tu t'en sors ce sera un coup d'bol Pour lui faire comprendre j'mets un coup d'crosse Là j'lui ai ouvert le front Et puis j'lui ai dit file vers le font, ça t'fera passer l'envie d'faire le con J'suis parti avec la mallette pleine de galettes Et j'recommencerai à moins qu'une balle en pleine tête ne marrête Mains en l'air, face contre terre, mets tout l'liquide dans l'sac Mets ta casquette, ta chaîne et ta bague de fiançailles J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'ai le coffret DVD de Body Talk Caché dans ma breuch, derrière mes CDs hip-hop J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard Sexuel dans mes paragraphes, on s'allonge Mais j'n'ai pas de drap, pas d'pote-ca, j'ai mis du sparadrap Et j'la pine avec la dalle d'un taulard Soudain elle ressent la puissance de lanaconda T'inquiète baby love, il n'va pas te broyer Que du bonheur, que du kiff, il va t'faire aboyer Tu vas filer dans les cieux, j'suis un bisounours Rocco Siffredi, tu prends ton pied dans mon pieux Jolly Jumper, mister trampoline On fait une pause à chaque heure, faut qu'tu prennes ta ventoline On va l'faire, comme si demain c'était notre tour de crever Fermons les volets pour ne pas voir le jour se lever J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard On m'a pistonné, livreur de pizzas à toute heure J'suis revenu trois heures après avec la roue du scooter Putain, dans les taffs j'ai la poisse à mes trousses On aurait dit qu'elle veut à tout prix que j'l'épouse J'ai même taffé au McDo en scred Le client qui prenait la grosse tete j'crachais dans son steak Ils m'ont viré d'Franprix près du rayon desserts Parce que j'volais pour mes potes, et j'accusais les caissières J'ai fais cuistot mais c'est pas ça qui m'passionne J'ai failli découper l'chef dans une petite casserole Cousin, j'te jure la chance m'endort sur son coussin Tout ça me pousse à faire des sous en douce J'ai essayé d'travailler, les emplois-jeunes m'empoisonnent J'rappe jusqu'à c'que ça pète dans ta zone J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard Mon style vient d'un autre siècle mais n'est pas obsolètes Tu peux l'appeler jurassique mais j'serai l'Raptor ou le T-rex J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard J'en ai vu passer des têtes, j'ai commencé y a quelques années Solo, Squat venaient d'trouver la formule secrète Les new generation mc's et EJM Tenaient le haut du pavé, Daddy Yod pétait la FM Rivalité NordSud, Dany j'en avais seize La première fois qu'j'ai entendu quelqu'un crier 93 Cinquante négros métro gare du Nord La plupart d'entre eux aujourd'hui sont riches Videurs, morts ou gardes du corps J'me faufilais entre eux, les plus gangsters étaient mes héros J'en ai vu s'la donner un contre huit au Trocadéro À la mode t'avais les Stan Smith, chaussettes Burlington et Burberry J'espère être encore là jusqu'en 2010 J'suis pas un ancien, juste un débrouillard Pas un ancien, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un diksa, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un braqueur, juste un débrouillard J'suis pas un taffeur, juste un débrouillard Pas un taffeur, juste un débrouillard1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dany Dan premier du nom c'est ainsi qu'elles m'appellent Allongé comme Michel-Ange dans la seizième chapelle Puis j'me tiens droit, la foule me lance un énième rappel J'arrive tel un King Kong, un Cerbère ou le Kraken J'suis un fléau avec un crayon, la ffle-gi vient de très haut Ce que nous créons depuis le préau, vous allez respecter les cle-on J'rappe les yeux rouges vifs puis j'en goome dix Quoi de neuf bitch ? ? C'est Dany Dan et boug Dyf J'balance du plomb sur eux, pète les plombs sur eux Fonce sur eux, tombe sur eux, chie dessus, ouais je ponds sur eux Montre mon aplomb sur eux, franchement j'ignore de quoi les gens se rappelleront sur eux Le style est monstrueux, le style est somptueux Et toutes ces putes nègres qui vivent dans le paraître et qui se caressent, tu crois que je compte sur eux ? Mi pera, mi kung fu, j'me canalise en grand écart J'suis comme un bout d'chou avec un grand pétard Glock dans la gorge, glock dans la trachée J'veux m'attacher, cool et souriant mais là j'suis fâché T'entends bien mon ami c'est assez Le truc est gros comme une baleine, un cétacé Ils ont eu le buzz, mais vite fait, tout ça s'est tassé Dan et Dyf, on ne va pas de A en A, mais de C à C Et ouais j'fais le tour de l'alphabet Puis j'le dépasse puis je dérape, cousin on accepte assez Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Quoi de neuf B ? On retourne les ex bougs en baggy jeans 2014 dans les nineties, Timberland, Nike Air Mains en gun dans les airs On demande juste que ça rappe, rappe, rappe, rappe Rappe, rappe, rappe, rappe, rappe, rappe, rappe, rappe On braque ces blaireaux, on met des frappes You might also likeQuoi de neuf B ? Appelle ta team, allez, et j'assume bande de faux gars Un contre dix-huit, Barbe Blanche, Hulk Hogan Dyfrey pète les plombs, Dyfrey craque, non j'suis chaud gars En finesse, la position du cygne, hum... Hyôga J'l'ai juré, courrez si vous pouvez Je vais faire vos narines couler, comme si je réinventais le poulet Vous me saoulez, votre rap moelleux, rap chamallow, rap brioche Et le D.A. de maisons de disques ? Prends-ça dans ta bidoche ! Ça va sser-gli, ça va se pper-ta, 'rête ça ça si t'es qué-cla C'est comme Ken le Survivant, t'es mort mais tu ne le sais pas J'fais ça, ma ge-ra vient du tier-quar prend note Il ne s'agit que de ça, bel et bien que de ça, rien d'autre Couronne de laurier aux feuilles dorés méritée Après toutes ces années, mes fans toujours excités Viens dans mes concerts, viens vérifier la vérité Je récite des sincérités en douces ballades ou rythmes débridés Rien ne m'effraye plus sur Terre que la stupidité Qu'un imbécile convaincu lâchant des imbécillités J'adore l'inventivité, observe mon flow J'suis comme le premier poisson qui a sorti sa tête de l'eau Nouveau souffle, nouvelle vie, nouveau monde, nouvel univers Je change rien, je transforme tout, j'ai jamais fini frère Ils me trouvent dingue au début, mais après tous suivent Dany Dan premier du nom avec son boug Dyf 4</t>
+          <t>Dany Dan premier du nom c'est ainsi qu'elles m'appellent Allongé comme Michel-Ange dans la seizième chapelle Puis j'me tiens droit, la foule me lance un énième rappel J'arrive tel un King Kong, un Cerbère ou le Kraken J'suis un fléau avec un crayon, la ffle-gi vient de très haut Ce que nous créons depuis le préau, vous allez respecter les cle-on J'rappe les yeux rouges vifs puis j'en goome dix Quoi de neuf bitch ? ? C'est Dany Dan et boug Dyf J'balance du plomb sur eux, pète les plombs sur eux Fonce sur eux, tombe sur eux, chie dessus, ouais je ponds sur eux Montre mon aplomb sur eux, franchement j'ignore de quoi les gens se rappelleront sur eux Le style est monstrueux, le style est somptueux Et toutes ces putes nègres qui vivent dans le paraître et qui se caressent, tu crois que je compte sur eux ? Mi pera, mi kung fu, j'me canalise en grand écart J'suis comme un bout d'chou avec un grand pétard Glock dans la gorge, glock dans la trachée J'veux m'attacher, cool et souriant mais là j'suis fâché T'entends bien mon ami c'est assez Le truc est gros comme une baleine, un cétacé Ils ont eu le buzz, mais vite fait, tout ça s'est tassé Dan et Dyf, on ne va pas de A en A, mais de C à C Et ouais j'fais le tour de l'alphabet Puis j'le dépasse puis je dérape, cousin on accepte assez Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Si tu ne savais pas, maintenant tu vois Quoi de neuf B ? On retourne les ex bougs en baggy jeans 2014 dans les nineties, Timberland, Nike Air Mains en gun dans les airs On demande juste que ça rappe, rappe, rappe, rappe Rappe, rappe, rappe, rappe, rappe, rappe, rappe, rappe On braque ces blaireaux, on met des frappes Quoi de neuf B ? Appelle ta team, allez, et j'assume bande de faux gars Un contre dix-huit, Barbe Blanche, Hulk Hogan Dyfrey pète les plombs, Dyfrey craque, non j'suis chaud gars En finesse, la position du cygne, hum... Hyôga J'l'ai juré, courrez si vous pouvez Je vais faire vos narines couler, comme si je réinventais le poulet Vous me saoulez, votre rap moelleux, rap chamallow, rap brioche Et le D.A. de maisons de disques ? Prends-ça dans ta bidoche ! Ça va sser-gli, ça va se pper-ta, 'rête ça ça si t'es qué-cla C'est comme Ken le Survivant, t'es mort mais tu ne le sais pas J'fais ça, ma ge-ra vient du tier-quar prend note Il ne s'agit que de ça, bel et bien que de ça, rien d'autre Couronne de laurier aux feuilles dorés méritée Après toutes ces années, mes fans toujours excités Viens dans mes concerts, viens vérifier la vérité Je récite des sincérités en douces ballades ou rythmes débridés Rien ne m'effraye plus sur Terre que la stupidité Qu'un imbécile convaincu lâchant des imbécillités J'adore l'inventivité, observe mon flow J'suis comme le premier poisson qui a sorti sa tête de l'eau Nouveau souffle, nouvelle vie, nouveau monde, nouvel univers Je change rien, je transforme tout, j'ai jamais fini frère Ils me trouvent dingue au début, mais après tous suivent Dany Dan premier du nom avec son boug Dyf 4</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tache de rouge à lèvres sur le col en V de l'animal Normal, plus bas des traces de sécrétions vaginales 44 degrés disait l'étiquette sur le flash Et 7 grammes demi pesait l'sachet dans mes bask' 3.8 disait l'taux d'hémoglobine Et je roulais 50 kmh au-dessus de ce qu'ils autorisent Déf' dans une auto grise, croise un flash, photo prise C'est la première qu'il m'a montrée, entre autres prises Les autres étaient pires, j'n'ose même pas les décrire Vraiment, on m'voyait niquer grandes et p'tites mamans Tâter des ein's ou péter des fions Entre un étage et un autre, dans des cages d'escaliers bien sombres J'en vis une où je sortais d'un hôtel, faisant la gueule Tu t'sens naze quand tu viens de tromper la fille que t'aime Mais quand tu trompes, c'est que t'es plus vraiment love Ta meuf a beau être une bombe, un jour tu n'la trouves plus vraiment bonne V'là les premiers que j'ai prononcé, j'ai ajouté J'sais que j'ai fait l'ouf. J'connais la sentence donc allons-y ! J'n'ai aucune illusion à m'faire À 19 ans j'avais déjà fait de quoi brûler en Enfer M'accorderas-tu le pardon comme l'a souvent fait mon père ? Mais jamais sans qu'il éclate, jamais sans qu'il me fouette Mais trop tard, très tôt je fus trompé par Lucifer Et j'ai fait tout ça, j'm'en rends compte maintenant, que puis-je y faire ? Trop tard You might also like On fait l'cash, mais on meurt pas avec les billets Une fois que c'est plié, on s'interroge si on va brûler L'ampoule grillée dans mes yeux, je m'accrochais en vain Mais là c'est dead, j'ai des comptes à rendre à Dieu On rêve tous de mourir vieux, veut tenir sur le fil Qui s'casse facile comme un billet de dix eu' J'regrette les fois où j'ai boudé ma Bible Rejette les fois où j'ai trouvé la guigne Tout l'monde a peur de l'Enfer et qu'on l'enterre On réfléchit pas quand on fait du mal volontaire Souvent déshonoré mon père et ma mère Et j'accuse le quartier, et j'ai perdu des frères à la guerre J'ai blessé des curs, trahi des sentiments Céder à la tentation, agissait en silence Et j'ai fait les larmes d'un cur pur La jalousie et les drames ont rendu mon cur dur Ma colère et mes nerfs m'ont toujours tiré vers le bas Le respect et l'amour que je porte à mes gars Un homme d'honneur tombé dans le côté obscur Et je combats mes démons cachés dans des costumes Oui j'ai péché, blessé, triché, encaissé d'l'argent sale Dur de s'enlever ça dans l'crâne Mes mauvaises actions pris le dessus sur mes bonnes Et j'me consolais en m'disant Merde, la vie est conne ! Et je priais, pour ouvrir les portes de la chance Et je priais, pour faire partie des boss de la danse Et je priais, pour avoir la force de voir clair Et je priais, pour m'écarter des chemins de l'Enfer Ol'Kainry1</t>
+          <t>Tache de rouge à lèvres sur le col en V de l'animal Normal, plus bas des traces de sécrétions vaginales 44 degrés disait l'étiquette sur le flash Et 7 grammes demi pesait l'sachet dans mes bask' 3.8 disait l'taux d'hémoglobine Et je roulais 50 kmh au-dessus de ce qu'ils autorisent Déf' dans une auto grise, croise un flash, photo prise C'est la première qu'il m'a montrée, entre autres prises Les autres étaient pires, j'n'ose même pas les décrire Vraiment, on m'voyait niquer grandes et p'tites mamans Tâter des ein's ou péter des fions Entre un étage et un autre, dans des cages d'escaliers bien sombres J'en vis une où je sortais d'un hôtel, faisant la gueule Tu t'sens naze quand tu viens de tromper la fille que t'aime Mais quand tu trompes, c'est que t'es plus vraiment love Ta meuf a beau être une bombe, un jour tu n'la trouves plus vraiment bonne V'là les premiers que j'ai prononcé, j'ai ajouté J'sais que j'ai fait l'ouf. J'connais la sentence donc allons-y ! J'n'ai aucune illusion à m'faire À 19 ans j'avais déjà fait de quoi brûler en Enfer M'accorderas-tu le pardon comme l'a souvent fait mon père ? Mais jamais sans qu'il éclate, jamais sans qu'il me fouette Mais trop tard, très tôt je fus trompé par Lucifer Et j'ai fait tout ça, j'm'en rends compte maintenant, que puis-je y faire ? Trop tard On fait l'cash, mais on meurt pas avec les billets Une fois que c'est plié, on s'interroge si on va brûler L'ampoule grillée dans mes yeux, je m'accrochais en vain Mais là c'est dead, j'ai des comptes à rendre à Dieu On rêve tous de mourir vieux, veut tenir sur le fil Qui s'casse facile comme un billet de dix eu' J'regrette les fois où j'ai boudé ma Bible Rejette les fois où j'ai trouvé la guigne Tout l'monde a peur de l'Enfer et qu'on l'enterre On réfléchit pas quand on fait du mal volontaire Souvent déshonoré mon père et ma mère Et j'accuse le quartier, et j'ai perdu des frères à la guerre J'ai blessé des curs, trahi des sentiments Céder à la tentation, agissait en silence Et j'ai fait les larmes d'un cur pur La jalousie et les drames ont rendu mon cur dur Ma colère et mes nerfs m'ont toujours tiré vers le bas Le respect et l'amour que je porte à mes gars Un homme d'honneur tombé dans le côté obscur Et je combats mes démons cachés dans des costumes Oui j'ai péché, blessé, triché, encaissé d'l'argent sale Dur de s'enlever ça dans l'crâne Mes mauvaises actions pris le dessus sur mes bonnes Et j'me consolais en m'disant Merde, la vie est conne ! Et je priais, pour ouvrir les portes de la chance Et je priais, pour faire partie des boss de la danse Et je priais, pour avoir la force de voir clair Et je priais, pour m'écarter des chemins de l'Enfer Ol'Kainry1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Je suis le gardien de mon destin, mon criminel guest se nomme Dexter Je reste, fidèle au dièz parce qu'il en reste peu Le même feu ranger du même côté de ma veste Le même feu illumine les mêmes yeux J'demande est ce que, y'a-t-il un boug-zer pour dominer le game C'est mon nickname j'hésite même à fist man Dans le futur dans le passé, difficile à classer Qu'est-ce que je n'ai pas fait, qu'est que j'en ai baffé J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun Le soleil se lève sur la ville, un nouveau jour un nouveau billet J'traine carabine et l'heure du crime inspire à rimer Avant mon propre sang ne tache mon polo J'irai les braquer en solo à mains nues avec un masque de Holllow Les cadavres sont sur le sol, mais je nie en block Je n'ai clashé personne agressé personne, mais j'les ai mis en cloque Je suis toujours resté brave Il fut un temps où j'aimais tout le monde, mais ça c'était avant You might also like Je demande à cette life de me renoter, jpousse au développé Y aimeraient me relooker, menotter Mais ma volonté crache le fire et jla transmets Boug Dyf craque dans cmalheureux RAP Français One Love pour les frères qui mont hook up, encore qui me supportent Jpardonne aux pute nègres et sous potes Faut qu'tout sorte Comme si jvomissais ma haine sur la feuille blanche Dans cette vie ou dans une autre jaurais ma revanche Avec un seul crochet de mon bras gauche je lai couché Puis une pluie de balles a déferlé sur moi mais aucune delles ne ma touché Sous-estime comme si jétais vieux Si jai la volonté du feu, cest la volonté de Dieu Tu mcroises dans la rue tu bloques Jsuis comme un poison dans un médoc, un révérant avec un glock Ou bien même la faucheuse qui tfait un câlin Ma feuille blanche reflète lâme, jsuis un faux calme hein À un moment ils avaient réussis à me faire douter Et je luttais contre mon reflet dans le miroir complètement dérouté Plus d'encre dans ma plume de lâcher l'mic' et d'prendre le gun Le RAP, le RAP fait prendre le seum Puis j'ai vu le verre d'eau à moitié plein Et le fire qui vit brûle en moi lui n'est pas éteint Ceux qui souhaitaient qu'm'arrive le pire verront J'serais meilleur que les autres boug' ou je serais différent</t>
+          <t>Je suis le gardien de mon destin, mon criminel guest se nomme Dexter Je reste, fidèle au dièz parce qu'il en reste peu Le même feu ranger du même côté de ma veste Le même feu illumine les mêmes yeux J'demande est ce que, y'a-t-il un boug-zer pour dominer le game C'est mon nickname j'hésite même à fist man Dans le futur dans le passé, difficile à classer Qu'est-ce que je n'ai pas fait, qu'est que j'en ai baffé J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun J'ai une plume, un mic' et un gun Le soleil se lève sur la ville, un nouveau jour un nouveau billet J'traine carabine et l'heure du crime inspire à rimer Avant mon propre sang ne tache mon polo J'irai les braquer en solo à mains nues avec un masque de Holllow Les cadavres sont sur le sol, mais je nie en block Je n'ai clashé personne agressé personne, mais j'les ai mis en cloque Je suis toujours resté brave Il fut un temps où j'aimais tout le monde, mais ça c'était avant Je demande à cette life de me renoter, jpousse au développé Y aimeraient me relooker, menotter Mais ma volonté crache le fire et jla transmets Boug Dyf craque dans cmalheureux RAP Français One Love pour les frères qui mont hook up, encore qui me supportent Jpardonne aux pute nègres et sous potes Faut qu'tout sorte Comme si jvomissais ma haine sur la feuille blanche Dans cette vie ou dans une autre jaurais ma revanche Avec un seul crochet de mon bras gauche je lai couché Puis une pluie de balles a déferlé sur moi mais aucune delles ne ma touché Sous-estime comme si jétais vieux Si jai la volonté du feu, cest la volonté de Dieu Tu mcroises dans la rue tu bloques Jsuis comme un poison dans un médoc, un révérant avec un glock Ou bien même la faucheuse qui tfait un câlin Ma feuille blanche reflète lâme, jsuis un faux calme hein À un moment ils avaient réussis à me faire douter Et je luttais contre mon reflet dans le miroir complètement dérouté Plus d'encre dans ma plume de lâcher l'mic' et d'prendre le gun Le RAP, le RAP fait prendre le seum Puis j'ai vu le verre d'eau à moitié plein Et le fire qui vit brûle en moi lui n'est pas éteint Ceux qui souhaitaient qu'm'arrive le pire verront J'serais meilleur que les autres boug' ou je serais différent</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yeah, 1,2,1,2,1 Yeah Ok on se la fait à la Method Le délire est sombre, c'est dans le script Donc j'lève mon col haut comme le comte de la Crypte Dan, vous connaissez l'homme j'suis un peu comme une grue Super flash, super fin, long mais je soulève des tonnes Shimmy-Shimmy-Yo Yeepe-Yo Yeepe-Yeah J'ai les j'ai les crocs, p'tit couillon enculé Je suis violent sur le break-beat, je suis technique Je suis ghetto comme un grec frite, je suis rect-di Chief Rocka Mes rebeus mes babtou mes mouaka J'suis comme une tige de lotus je pousse malgré le caca J'ai des feuilles miraculeuses comme la naissance de Bouddha Ouhlà, vous là mais vous êtes ouf Dan est dans les airs j'lui envoie des Alley-Oop Sachez qu'on ne joue pas Serieusement ? Ou pas Fait tourner la loop, on va caner tous les groupes Rien qu'j'te capte dans ma soucoupe Alien j'arrive sur Terre écoutant du Grand Puba J'ai des lasers ils en sont encore aux bazookas J'entends de la soupe Sur vos ondes, j'sonne le gong, dans la red zone Mandingo face à des cougars Bande de petits voyous Tous vos bails n'ont pas de sens Ma voix a fait des pas de danse Sur des tas de samples Vas-y crève tu n'as pas de force, tu n'as pas de chance Je vous dead, j'vous mets 4 lances, j'vous mets 4 branches Et j'me canalise Pourquoi tu veux rivaliser ? J'te regarde même pas, mec comme si t'étais un kisdé J'ai un sac, une valise Un mannequin au phone et j'suis innocent, j'ignore de quoi tu veux m'accuser You might also like Ghetto pur sang attachez vos ture-cein Laissez faire le pur son juste pour les vrais Kicke comme à l'ancienne chaud, easy j'fais le truc simple Au delà de la fiction, juste pour les vrais On arrive sur scène en sautillant, sautillant Et on frime devant tes gars, devant tes gars Le style arrive d'en bas Y'a que des oufs dans l'autocar On est ready pour le gnaga, gnaga Parce qu'on est plus là pour golri Wu-Tang est dans mon esprit, deuspi Pour tous mes pirates de Paris Daniel et Dyfrey, on va ensemble comme une ligne de basse Un roulement de batterie, un synthétiseur Posé dans mon divan, à siroter ma tise Torse nu tatoué t'as cru que 2Pac était vivant Trop de Justin Bieber Qui piochent dans mes vivres Pas d'style et pas d'iv Ca joue les divas Mais les vrais reconnaîtront les vrais N'est-ce pas ? Les vrais reconnaîtront les vrais !</t>
+          <t>Yeah, 1,2,1,2,1 Yeah Ok on se la fait à la Method Le délire est sombre, c'est dans le script Donc j'lève mon col haut comme le comte de la Crypte Dan, vous connaissez l'homme j'suis un peu comme une grue Super flash, super fin, long mais je soulève des tonnes Shimmy-Shimmy-Yo Yeepe-Yo Yeepe-Yeah J'ai les j'ai les crocs, p'tit couillon enculé Je suis violent sur le break-beat, je suis technique Je suis ghetto comme un grec frite, je suis rect-di Chief Rocka Mes rebeus mes babtou mes mouaka J'suis comme une tige de lotus je pousse malgré le caca J'ai des feuilles miraculeuses comme la naissance de Bouddha Ouhlà, vous là mais vous êtes ouf Dan est dans les airs j'lui envoie des Alley-Oop Sachez qu'on ne joue pas Serieusement ? Ou pas Fait tourner la loop, on va caner tous les groupes Rien qu'j'te capte dans ma soucoupe Alien j'arrive sur Terre écoutant du Grand Puba J'ai des lasers ils en sont encore aux bazookas J'entends de la soupe Sur vos ondes, j'sonne le gong, dans la red zone Mandingo face à des cougars Bande de petits voyous Tous vos bails n'ont pas de sens Ma voix a fait des pas de danse Sur des tas de samples Vas-y crève tu n'as pas de force, tu n'as pas de chance Je vous dead, j'vous mets 4 lances, j'vous mets 4 branches Et j'me canalise Pourquoi tu veux rivaliser ? J'te regarde même pas, mec comme si t'étais un kisdé J'ai un sac, une valise Un mannequin au phone et j'suis innocent, j'ignore de quoi tu veux m'accuser Ghetto pur sang attachez vos ture-cein Laissez faire le pur son juste pour les vrais Kicke comme à l'ancienne chaud, easy j'fais le truc simple Au delà de la fiction, juste pour les vrais On arrive sur scène en sautillant, sautillant Et on frime devant tes gars, devant tes gars Le style arrive d'en bas Y'a que des oufs dans l'autocar On est ready pour le gnaga, gnaga Parce qu'on est plus là pour golri Wu-Tang est dans mon esprit, deuspi Pour tous mes pirates de Paris Daniel et Dyfrey, on va ensemble comme une ligne de basse Un roulement de batterie, un synthétiseur Posé dans mon divan, à siroter ma tise Torse nu tatoué t'as cru que 2Pac était vivant Trop de Justin Bieber Qui piochent dans mes vivres Pas d'style et pas d'iv Ca joue les divas Mais les vrais reconnaîtront les vrais N'est-ce pas ? Les vrais reconnaîtront les vrais !</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Revoilà votre boug'zer Jason, sur bootleg Reason ? Mon bout d'seize résonne, comme le Wu-Tang legend Les groupies s'lèvent, les M.C nous haissent Montrez vos maïs, branchez les mic' C'est l'putain d'désordre, aucun bling-bling tout dans les yeux Tout dans le charisme, on vit l'dream toucher les cieux Bifler les montagnes Ma rime vibre programmée qu'à ça Donnez le brassard Gangsta' sans Scar dans l'rôle de Mufasa Dany Il n'sagit que d'ça prenons les armes On se pavane à l'aise en tout temps DeLorean Que des bad faces j'te dis Depuis Ice, Ice, Baby J'place une cace-cace-dédi Au boug fyd fyd freddy Reste réceptif, je rescucite MTV Yo Rap et les cassettes, les clip C'était des vrais délices 2pac et Biggie O.D.B R.I.P I reminisce I reminisce comme l'a dit Mary J x2 Besoin d'un mic P'tite fight Une tass' qui masse Click clack Chui un black qui life You might also likeAu max d'puis les 90's Toujours fly dans mes Nikes Un peux de son quelques raclises Ol'Kainry, Dany Dan qui rappent Le mic' et moi on va ensemble Comme l'herbe et le tabac Ma copine et moi depuis 3 mois Toujours et parfois Crois-moi L'Afrique est l'origine L'Europe est l'histoire L'oreille est le transistor L'effort et la victoire Je vous hais, je vous adore J'suis scorpion, je blesse d'abord Puis je soigne Dan XXX J'avais des tresses couchées sur ma tête Ma sur Caroline mettait d'la graisse Entre ses genoux j'rêvais d'belles bagnoles Bois mon passé je déverse ma fiole L'époque ou la flèche de Cupidon transperce ma aorte Et je n'parle pas d'une Italienne nubienne Ou Espagnole Je parle d'la mélodie d'un rythme R.A.P Caisse qu'ça sonne Apocalypto j'apporte L'harmonie puis le chaos Tu captes Dan J'apporte l'arme au nez puis le chaos C'n'est pas qu'j'vis dans le passé C'est qu'le passé doit vivre J'sais d'où j'viens Donc où je vais Affaire à suivre</t>
+          <t>Revoilà votre boug'zer Jason, sur bootleg Reason ? Mon bout d'seize résonne, comme le Wu-Tang legend Les groupies s'lèvent, les M.C nous haissent Montrez vos maïs, branchez les mic' C'est l'putain d'désordre, aucun bling-bling tout dans les yeux Tout dans le charisme, on vit l'dream toucher les cieux Bifler les montagnes Ma rime vibre programmée qu'à ça Donnez le brassard Gangsta' sans Scar dans l'rôle de Mufasa Dany Il n'sagit que d'ça prenons les armes On se pavane à l'aise en tout temps DeLorean Que des bad faces j'te dis Depuis Ice, Ice, Baby J'place une cace-cace-dédi Au boug fyd fyd freddy Reste réceptif, je rescucite MTV Yo Rap et les cassettes, les clip C'était des vrais délices 2pac et Biggie O.D.B R.I.P I reminisce I reminisce comme l'a dit Mary J x2 Besoin d'un mic P'tite fight Une tass' qui masse Click clack Chui un black qui life Au max d'puis les 90's Toujours fly dans mes Nikes Un peux de son quelques raclises Ol'Kainry, Dany Dan qui rappent Le mic' et moi on va ensemble Comme l'herbe et le tabac Ma copine et moi depuis 3 mois Toujours et parfois Crois-moi L'Afrique est l'origine L'Europe est l'histoire L'oreille est le transistor L'effort et la victoire Je vous hais, je vous adore J'suis scorpion, je blesse d'abord Puis je soigne Dan XXX J'avais des tresses couchées sur ma tête Ma sur Caroline mettait d'la graisse Entre ses genoux j'rêvais d'belles bagnoles Bois mon passé je déverse ma fiole L'époque ou la flèche de Cupidon transperce ma aorte Et je n'parle pas d'une Italienne nubienne Ou Espagnole Je parle d'la mélodie d'un rythme R.A.P Caisse qu'ça sonne Apocalypto j'apporte L'harmonie puis le chaos Tu captes Dan J'apporte l'arme au nez puis le chaos C'n'est pas qu'j'vis dans le passé C'est qu'le passé doit vivre J'sais d'où j'viens Donc où je vais Affaire à suivre</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Les mains en lair pour Ol Kainry Dany Dan Hip-hop hooray Hey, ho x4 Ayo, cest moi le nouveau James Bond avec un microphone doré Un espion regardant la vie les yeux plissés Mon cahier de rimes premier témoin de mon odyssée Mes aventures méritent un film, jfais du ciné Tout au début de la tess, te croyant au-dessus des lois gars Fait résonner son nom dans le rap et dans les bagarres Déjà ça vannait sec Pas encore de pec Et les négros commençaient déjà à faire des Menace II society Démarche chaloupée nonchalante jsors, tout cque jfais est hors norme Au cur dla ville vla mon folklore La gloire, la thune la justice sont mes sponsors Regarde, la go vient djouir et mdit encore Essaye de capter les phases, je viens ressasser le vrai Pour tous les cracks de rap, de hip-hop hooray Hey, ho x4 Hip-hop hooray Hey, ho x4 Hip-hop hooray Hey, ho x4 You might also like Yeah, j'aimerais trop raviver la flamme comme un hologramme Créer des programmes Avec mon gros Dan' on essaye d'faire des beaux bayes non Rien qu'ils essaient de nous diviser Sur nous qui faut miser Du vrai Hip-Hop on rappe dans la fusée Ces négros savent que je suis trop technique man J'ai trop la trique man Un re-noi d'Afrique man Pousser la fonte et je fais vibrer le pec Que des soldats dans la clique On va t'faire signer le chèque mec On est des milliers, mais vos candidats mécurent Des gros loux-ja haters on vous a mis l'seum J'me torche J'suis torse nu sur c'morceau J'roule avec deux trois M.C dans le coffre Vrai Hip-Hop du Ol' et Dan' C'est de l'épaule ou de l'avant-bras qui faut nous checker Et puis la vibe qui m'engraine Le vrai Hip-Hop dans mes veines Qui pourra stopper le règne</t>
+          <t>Les mains en lair pour Ol Kainry Dany Dan Hip-hop hooray Hey, ho x4 Ayo, cest moi le nouveau James Bond avec un microphone doré Un espion regardant la vie les yeux plissés Mon cahier de rimes premier témoin de mon odyssée Mes aventures méritent un film, jfais du ciné Tout au début de la tess, te croyant au-dessus des lois gars Fait résonner son nom dans le rap et dans les bagarres Déjà ça vannait sec Pas encore de pec Et les négros commençaient déjà à faire des Menace II society Démarche chaloupée nonchalante jsors, tout cque jfais est hors norme Au cur dla ville vla mon folklore La gloire, la thune la justice sont mes sponsors Regarde, la go vient djouir et mdit encore Essaye de capter les phases, je viens ressasser le vrai Pour tous les cracks de rap, de hip-hop hooray Hey, ho x4 Hip-hop hooray Hey, ho x4 Hip-hop hooray Hey, ho x4 Yeah, j'aimerais trop raviver la flamme comme un hologramme Créer des programmes Avec mon gros Dan' on essaye d'faire des beaux bayes non Rien qu'ils essaient de nous diviser Sur nous qui faut miser Du vrai Hip-Hop on rappe dans la fusée Ces négros savent que je suis trop technique man J'ai trop la trique man Un re-noi d'Afrique man Pousser la fonte et je fais vibrer le pec Que des soldats dans la clique On va t'faire signer le chèque mec On est des milliers, mais vos candidats mécurent Des gros loux-ja haters on vous a mis l'seum J'me torche J'suis torse nu sur c'morceau J'roule avec deux trois M.C dans le coffre Vrai Hip-Hop du Ol' et Dan' C'est de l'épaule ou de l'avant-bras qui faut nous checker Et puis la vibe qui m'engraine Le vrai Hip-Hop dans mes veines Qui pourra stopper le règne</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>It is not a fucking game Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Le rap a perdu ses couilles, se fait boxer dans l'ascenseur, Solange Manque de respect et goûte à mon bouquet d'phalanges J'ai le sens de la vengeance comme Quentin Tarantino Django fait parler le colt pour le butin Si tu m'croises en costume blu, c'est qu'je viens vnger le rap Western en pleine banlieue Les nouveaux ne me font ni chaud ni froid Ils n'ont ni le flow ni la voix ni les épaules Qu'ils payent un impôt à Dany Dan Te laisse pas bluffer par le sourire et la voix douce Pop, j'fais l'holocauste Puis j'rentre, mate les infos sur un buf Stroganov Fumer tiser baiser mon cocktail Molotov Juste avant de poser, j'adore ce protocole Demain viendra vite Et j'aurai tout, le flow, le rythme et la dégaine Les codes secrets de la vie planqués dans mon ADN Méfiez-vous d'la force de frappe Du nègre à la casquette toujours bien ajustée comme la toque du pape Dan! You might also like Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Juste le fruit de mon époque J'erre dans un pavaning 'vec le canon de mon Glock Tout bien coincé dans mon froc Flow dans ma démarche à la The Wire ou Clockers Thug à la Menace, toujours violent sur le sample Qui veut test' l'homme une fois qu'j'enlève le T-shirt? Ah fils, il est bien trop tard pour faire lol Fais le fais le job, j'ai doguiné ton bord elle a kiffé Elle a crié Whoa comme Black Rob Tu veux parler sur qui? Roi du Nord, Prince de Turquie J'ai l'zgueg sorti Même les haters sont en surkif, ils disent pardon Donc je tue l'titre, au passage j'te cultive Rimes furtives, c'est clic-bang! XXX XXX stylé dans mon North Face Hip-hop chef d'orchestre Évry, Lille, Pont d'Sèvres Et l'7-7, le concept est simple Toujours violent sur le violon, sur le synthé Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Le style est monstrueux, le style est somptueux Kiffeur, kickeur, bosseur</t>
+          <t>It is not a fucking game Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Le rap a perdu ses couilles, se fait boxer dans l'ascenseur, Solange Manque de respect et goûte à mon bouquet d'phalanges J'ai le sens de la vengeance comme Quentin Tarantino Django fait parler le colt pour le butin Si tu m'croises en costume blu, c'est qu'je viens vnger le rap Western en pleine banlieue Les nouveaux ne me font ni chaud ni froid Ils n'ont ni le flow ni la voix ni les épaules Qu'ils payent un impôt à Dany Dan Te laisse pas bluffer par le sourire et la voix douce Pop, j'fais l'holocauste Puis j'rentre, mate les infos sur un buf Stroganov Fumer tiser baiser mon cocktail Molotov Juste avant de poser, j'adore ce protocole Demain viendra vite Et j'aurai tout, le flow, le rythme et la dégaine Les codes secrets de la vie planqués dans mon ADN Méfiez-vous d'la force de frappe Du nègre à la casquette toujours bien ajustée comme la toque du pape Dan! Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Juste le fruit de mon époque J'erre dans un pavaning 'vec le canon de mon Glock Tout bien coincé dans mon froc Flow dans ma démarche à la The Wire ou Clockers Thug à la Menace, toujours violent sur le sample Qui veut test' l'homme une fois qu'j'enlève le T-shirt? Ah fils, il est bien trop tard pour faire lol Fais le fais le job, j'ai doguiné ton bord elle a kiffé Elle a crié Whoa comme Black Rob Tu veux parler sur qui? Roi du Nord, Prince de Turquie J'ai l'zgueg sorti Même les haters sont en surkif, ils disent pardon Donc je tue l'titre, au passage j'te cultive Rimes furtives, c'est clic-bang! XXX XXX stylé dans mon North Face Hip-hop chef d'orchestre Évry, Lille, Pont d'Sèvres Et l'7-7, le concept est simple Toujours violent sur le violon, sur le synthé Je suis violent sur le violon Il n's'agit que d'ça, bel et bien que d'ça, rien d'autre Le style est monstrueux, le style est somptueux Kiffeur, kickeur, bosseur</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Well J'ai toujours vécu libre, trouve qu'il n'y a pas plus grande richesse Le matin j'me lève et j'écris ma vie étrange business Des triomphes, des tragédies, des passages autobiographiques D'autres que j'invente de toute pièce Pour rendre plus tendre ma fresque J'mate ma life droit dans les yeux, mon bonheur je le capture Je suis une belle poésie sur feuille remplie de ratures Responsable, irresponsable, mature et immature Dans mon propre délire, tu connais ma signature Il ne faut jamais dire jamais, c'est c'que la musique nous répète toujours J'inspire profondément... Jérusalem, te verrais-je un jour ? Ou l'empire Ottoman, les tours de Singapour Je m'vois déjà de retour d'un tour du monde à Billancourt J'suis né avec la détermination d'me faire un nom J'ai aimé, fut trahi, re-aimé, Dyfr' est un cur de lion Un vécu Ali-Foreman, famille en or, man Dans un quartier pas normal, j'marche seul comme Goldman You might also like Y'a des accidents bêtes et y'en a des miraculeux Des chutes fabuleuses et tu tombes sur ton précieux Y'a des rencontres explosives Ol et Dan, haut les coeurs, haut les mains Oh les frères! Est-ce qu'on kicke ? La j'ai juste envie d'être posé sur ce beat calme J'pense à mon futur, à ma fille qui devient une p'tite femme Daron trentenaire, forever young Faire frissonner le monde avant que sonne le gong J'ai juré Un nouvel album dans les bacs, un diable Comme le Sphynx, enfin libéré des sables Vous voyez c'n'est pas une fable Faut le voir pour le croire et faut l'entendre pour le comprendre Se détendre, s'ambiancer, s'enjailler, se reprendre J'ai toujours rappé ma life, écris mes textes la night Soigné mon style, Timberland ou Nike C'est juste ma vérité, mais pourquoi j'ai milité Tout ce qu'on fait aujourd'hui résonnera dans l'éternité</t>
+          <t>Well J'ai toujours vécu libre, trouve qu'il n'y a pas plus grande richesse Le matin j'me lève et j'écris ma vie étrange business Des triomphes, des tragédies, des passages autobiographiques D'autres que j'invente de toute pièce Pour rendre plus tendre ma fresque J'mate ma life droit dans les yeux, mon bonheur je le capture Je suis une belle poésie sur feuille remplie de ratures Responsable, irresponsable, mature et immature Dans mon propre délire, tu connais ma signature Il ne faut jamais dire jamais, c'est c'que la musique nous répète toujours J'inspire profondément... Jérusalem, te verrais-je un jour ? Ou l'empire Ottoman, les tours de Singapour Je m'vois déjà de retour d'un tour du monde à Billancourt J'suis né avec la détermination d'me faire un nom J'ai aimé, fut trahi, re-aimé, Dyfr' est un cur de lion Un vécu Ali-Foreman, famille en or, man Dans un quartier pas normal, j'marche seul comme Goldman Y'a des accidents bêtes et y'en a des miraculeux Des chutes fabuleuses et tu tombes sur ton précieux Y'a des rencontres explosives Ol et Dan, haut les coeurs, haut les mains Oh les frères! Est-ce qu'on kicke ? La j'ai juste envie d'être posé sur ce beat calme J'pense à mon futur, à ma fille qui devient une p'tite femme Daron trentenaire, forever young Faire frissonner le monde avant que sonne le gong J'ai juré Un nouvel album dans les bacs, un diable Comme le Sphynx, enfin libéré des sables Vous voyez c'n'est pas une fable Faut le voir pour le croire et faut l'entendre pour le comprendre Se détendre, s'ambiancer, s'enjailler, se reprendre J'ai toujours rappé ma life, écris mes textes la night Soigné mon style, Timberland ou Nike C'est juste ma vérité, mais pourquoi j'ai milité Tout ce qu'on fait aujourd'hui résonnera dans l'éternité</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hé yo ! Elle se baladait, en chantant Lalala Sur l'avenue des Champs Élysées, balançant son nouveau sac à main Ses talons faisaient pic-poc pic-poc Et moi je passais par-là, j'aime comment le destin tricote Elle allait par-ici, j'allais par là-bas Dans mon nouveau parka, mes nouvelles bottes, ressassant mes tracas Mais elle se baladait, Lalalala, ça m'a mit dans tous mes états Tu sais, une jolie femme dans tous ses éclats Sa chevelure flottait dans la brise, ses seins gonflaient sa chemise J'n'avais jamais vu un pantalon aussi moulant d'ma vie Sûr qu'elle avait peignée sa chatte, et travaillé sa démarche J'm'imaginais son mec, j'espère qu'il la gâte Une fille comme ça, tu t'arraches pour elle, même quand elle t'agace J'la connais pas mais j'la regarde en m'disant La classe! J'adorerais qu'elle m'embête, qu'elle m'énerve, qu'elle me rende fou J'adorerais péter les plombs pour elle, lui donner d'l'amour Elle se baladait en chantant Lalala Le chewing-gum est mâché comme une biatch, à la Rihanna Place carrée Châtelet de la viande devant les piranhas Le genre de fille qui glisse, des cuisses qui te kill un homme Personne n'a l'audace, ça ne bouge pas Les timals de la place se tâtent, Elle a un boug ou pas ? A chacun de ses pas, le bruit des talons arrête le temps Ses cheveux vrillés brillent avec le vent V'là que j'm'approche, j'entends elle tchipe et elle accélère J'lui ai lancé Hey, tu es moelleuse comme le Moltonel Elle-même a gol-ri puis a trébuché C'est dans une flaque de pisse, caca de chien qu'elle se trémoussait Kardashian Kim, Beyonce, Minaj Nicki Le boule au sol, legging imbibé de pipi Dire qu'elle se baladait en chantant Lalala Lololol si t'avais vu la chute, ah la la... Ol Kainry You might also like Rires - Elle est tombé comme du n'importe quoi - Jamais vu ça - Elle est tombé comme du n'importe quoi</t>
+          <t>Hé yo ! Elle se baladait, en chantant Lalala Sur l'avenue des Champs Élysées, balançant son nouveau sac à main Ses talons faisaient pic-poc pic-poc Et moi je passais par-là, j'aime comment le destin tricote Elle allait par-ici, j'allais par là-bas Dans mon nouveau parka, mes nouvelles bottes, ressassant mes tracas Mais elle se baladait, Lalalala, ça m'a mit dans tous mes états Tu sais, une jolie femme dans tous ses éclats Sa chevelure flottait dans la brise, ses seins gonflaient sa chemise J'n'avais jamais vu un pantalon aussi moulant d'ma vie Sûr qu'elle avait peignée sa chatte, et travaillé sa démarche J'm'imaginais son mec, j'espère qu'il la gâte Une fille comme ça, tu t'arraches pour elle, même quand elle t'agace J'la connais pas mais j'la regarde en m'disant La classe! J'adorerais qu'elle m'embête, qu'elle m'énerve, qu'elle me rende fou J'adorerais péter les plombs pour elle, lui donner d'l'amour Elle se baladait en chantant Lalala Le chewing-gum est mâché comme une biatch, à la Rihanna Place carrée Châtelet de la viande devant les piranhas Le genre de fille qui glisse, des cuisses qui te kill un homme Personne n'a l'audace, ça ne bouge pas Les timals de la place se tâtent, Elle a un boug ou pas ? A chacun de ses pas, le bruit des talons arrête le temps Ses cheveux vrillés brillent avec le vent V'là que j'm'approche, j'entends elle tchipe et elle accélère J'lui ai lancé Hey, tu es moelleuse comme le Moltonel Elle-même a gol-ri puis a trébuché C'est dans une flaque de pisse, caca de chien qu'elle se trémoussait Kardashian Kim, Beyonce, Minaj Nicki Le boule au sol, legging imbibé de pipi Dire qu'elle se baladait en chantant Lalala Lololol si t'avais vu la chute, ah la la... Ol Kainry Rires - Elle est tombé comme du n'importe quoi - Jamais vu ça - Elle est tombé comme du n'importe quoi</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah, double D, double G mec Ol' Kainry Dany Dan, mixtape Got gun, Disques Durs Dave Daivery Yeah, celle-ci pour mes soldats CNL, yeah, Ol Ce sont nos rêves qui nous poussent plus ou moins fort Aussi sûr qu'en disant ça j'ai plus ou moins tort Dès la naissance on est déjà tous plus ou moins morts Et quand on part, ça dépend des gens, c'est plus ou moins gore Demolition man Tu sens déjà la pression quand j'arrive Les pecs qui bougent, de l'air chaud sort de mes narines Et ça flingue et puis ça rime Posé sur un baril Restes de MC collés sur les canines Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Non, j'suis venu m'faire du bif et des nouveaux ients-cli La formule est simple, des punchlines sur un groove de yankee Faut qu'j'ramène les crédits J'aime les gros chèques et les ladiesC'est pas Fifty, c'est pas Shady, c'est Daniel et Freddy Et je n'en suis qu'aux magazines Mais rien ne stoppera mon drop jusqu'au chauffeur et la limousine Ramène un stick J'ramène un bloc Ramène une clique J'ramène un Glock Donc ramène un doc car j'envoie des toxines Les frères tombent accros sans s'en rendre compte Seul un tour en Fnac les vaccine Dans mon flow j'reste easy easy Un phrasé de grizzly, à chaque kick, tous les condés sont busy Les délinquants, mec, sont noisy Tu connais ma technique mec, Ol' Kainry Nistelrooy You might also like Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires T'as reconnu ma voice, mon son dans tous les sound tourne Mister O.L. a.k.a. Jason Bourne Car ma vision fait plein d'zooms Mon micro fait plein d'boums J'mets la pression à des putain d'clowns J'suis dans l'jeu À la banque, j'suis dans l'bleu Car depuis qu'j'suis à mon propre compte, j'suis plus dangereux Et j'n'ai rien contre la critique Que serait la vie sans challenge, et le fait est que j'adore convaincre un sceptique Tu peux pas test' là c'est chaud les mecs Y a plus de tass' que Raymond Domenech Fais d'abord tes classes, va faire des omelettes Va chercher des lyrics sur le Net si c'est la soluce Les mecs croient qu'ils éclatent mais rappent comme Coluche J'n'y vais jamais au compte-gouttes J'règle la console comme une table de Scrabble car mes mots comptent double Dan passe des nuits sans sommeil Fais gaffe quand tu mets son disque, tu risques de jouir des oreilles Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires Yo, les haineux peuvent se tèj d'un pont J'suis loin d'avoir fini Et pour chacun d'entre eux il me reste un plomb J'suis à mon top dès l'aube J'veux éviter la pauvreté, cette impression que sous tes pieds le sol s'dérobe Donc je force l'éloge Et nique si mes poumons noircissent, j'brûle mes spliffs dans toutes sortes de loges Ça fait un pour la basse, deux pour les dons-bi Ceux qui croyaient Dan dead maintenant doivent croire aux zombies Tu fais des combines ou des sciences occultes Moi j't'embobine, je te doggyne et puis je défonce ton cul En seize mesures c'est un minimum Tu squattes ma ligne comme un millenium Et j'bois des MC comme du Ice Tea Lemon Pourquoi mon rap claque et défigure Parce que j'ai toujours l'il du tigre, la pêche, la gouache et le zizi dur Donc t'es dead mais t'avais pas le choix Frappez du poing, Dan et Ol ont gâté le coin Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires</t>
+          <t>Yeah, double D, double G mec Ol' Kainry Dany Dan, mixtape Got gun, Disques Durs Dave Daivery Yeah, celle-ci pour mes soldats CNL, yeah, Ol Ce sont nos rêves qui nous poussent plus ou moins fort Aussi sûr qu'en disant ça j'ai plus ou moins tort Dès la naissance on est déjà tous plus ou moins morts Et quand on part, ça dépend des gens, c'est plus ou moins gore Demolition man Tu sens déjà la pression quand j'arrive Les pecs qui bougent, de l'air chaud sort de mes narines Et ça flingue et puis ça rime Posé sur un baril Restes de MC collés sur les canines Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Non, j'suis venu m'faire du bif et des nouveaux ients-cli La formule est simple, des punchlines sur un groove de yankee Faut qu'j'ramène les crédits J'aime les gros chèques et les ladiesC'est pas Fifty, c'est pas Shady, c'est Daniel et Freddy Et je n'en suis qu'aux magazines Mais rien ne stoppera mon drop jusqu'au chauffeur et la limousine Ramène un stick J'ramène un bloc Ramène une clique J'ramène un Glock Donc ramène un doc car j'envoie des toxines Les frères tombent accros sans s'en rendre compte Seul un tour en Fnac les vaccine Dans mon flow j'reste easy easy Un phrasé de grizzly, à chaque kick, tous les condés sont busy Les délinquants, mec, sont noisy Tu connais ma technique mec, Ol' Kainry Nistelrooy Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires T'as reconnu ma voice, mon son dans tous les sound tourne Mister O.L. a.k.a. Jason Bourne Car ma vision fait plein d'zooms Mon micro fait plein d'boums J'mets la pression à des putain d'clowns J'suis dans l'jeu À la banque, j'suis dans l'bleu Car depuis qu'j'suis à mon propre compte, j'suis plus dangereux Et j'n'ai rien contre la critique Que serait la vie sans challenge, et le fait est que j'adore convaincre un sceptique Tu peux pas test' là c'est chaud les mecs Y a plus de tass' que Raymond Domenech Fais d'abord tes classes, va faire des omelettes Va chercher des lyrics sur le Net si c'est la soluce Les mecs croient qu'ils éclatent mais rappent comme Coluche J'n'y vais jamais au compte-gouttes J'règle la console comme une table de Scrabble car mes mots comptent double Dan passe des nuits sans sommeil Fais gaffe quand tu mets son disque, tu risques de jouir des oreilles Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires Yo, les haineux peuvent se tèj d'un pont J'suis loin d'avoir fini Et pour chacun d'entre eux il me reste un plomb J'suis à mon top dès l'aube J'veux éviter la pauvreté, cette impression que sous tes pieds le sol s'dérobe Donc je force l'éloge Et nique si mes poumons noircissent, j'brûle mes spliffs dans toutes sortes de loges Ça fait un pour la basse, deux pour les dons-bi Ceux qui croyaient Dan dead maintenant doivent croire aux zombies Tu fais des combines ou des sciences occultes Moi j't'embobine, je te doggyne et puis je défonce ton cul En seize mesures c'est un minimum Tu squattes ma ligne comme un millenium Et j'bois des MC comme du Ice Tea Lemon Pourquoi mon rap claque et défigure Parce que j'ai toujours l'il du tigre, la pêche, la gouache et le zizi dur Donc t'es dead mais t'avais pas le choix Frappez du poing, Dan et Ol ont gâté le coin Vous êtes en galère, j'suis venu pour kill Pas venu pour m'la ouej, j'suis pas venu pour chill Dan et Ol' Kainry légendaires Légendaires, légendaires, légendaires Légendaires, légendaires, légendaires</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Well, je n'suis qu'un parmi des millions, un loup parmi des loups Un parmi des millions, un fou parmi les fous Métropolitain et fier de l'être, souvent pressé je l'avoue Et souvent vraiment stressé pour mes sous J'garde ma casquette tout le temps baissée jusqu'aux joues J'aime aller dans les clubs et danser jusqu'au jour Taguer sous les tours, draguer sous les tours Flâner sous les tours, mais bon, faut bosser tous les jours Même si ne réussissent qu'les escrocs ou ceux qu'ont beaucoup d'bol Le sang des innocents coule, j'ai besoin d'une boussole On me trouve trop vulgaire La radio prend le public comme un SDF, passe que d'la soupe populaire Mais Dan aura la casquette large Le jean tombant et mon DJ vous tourne le dos quand il scratche Hein, je les fait crier ''Oh! Ah! Ouais!'' Et même quand les critiques pleuvent, j'suis cool, j'ai le flow K-Way Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond même pas tu clash , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race You might also like Yeah, dur de m'griller en costard, Dyfrey un gros scarla J'accroche l'écran plasma au scotch marron Vas-y rammène mes grosses parts, vénèr comme Jo' Starr Des rimes de batard et des grosses paroles T'as l'oreille devant mon canon, t'aimes ça non? Le son te roule un palot et tu pé-fli sur le piano Genre de keumé trop colérique, ramème tes soss' je les nique J'suis cash à la Laurence Boccolini Yeah, en terme de son, y'a moins de claques et de crimes Les chanteurs de R'n'B se prennent des claques et des pines Dans l'équipe pas de péquenauds, ni pédés, que des frérots qu'ont trimé T'es mort v'là Ze Pequeno et Bené J'vais vous faire péter les plombs, premier au hit go Ballon d'or façon Shevchenko Yeah, si tu connais mon album, tu connais mon magnum Les faux ont formé des crews bah y en aura pour chaque membre Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race Pressé d'aller trop vite, parce qu'à la longue ça devient comique Te comparer à moi, c'est des cure-dents contre des brolics Tu vas encore m'entendre rapper Tuerie, du genre Sarkozy seul dans ma maison de quartier Sauvage est mon ethnie et tous les mecs qui Ne serait-ce que doutent de mon power prennent des rimes Jet Li Donc faites péter le Cristal Parce que essayer de stop ça sert à rien comme la troisième Destiny's Child Ouais lève ta main si tu aimes, j'suis en mission comme Kery James Pop te fait minimum jouir ou tu finis blême Peu m'importe le nombre de gens dans ton crew Re-noi tu suceras ta salive avec du sang dans ton goût Je m'suis frotté aux meilleurs d'entre eux, pas perdu une plume Ce n'est pas du rap, je n'ai que du pur jus de burne Et tu n'as pas envie d'avaler mon jet A moins d'avoir vu une chatte, j'comprends pourquoi tu m'regardais de biais Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race</t>
+          <t>Well, je n'suis qu'un parmi des millions, un loup parmi des loups Un parmi des millions, un fou parmi les fous Métropolitain et fier de l'être, souvent pressé je l'avoue Et souvent vraiment stressé pour mes sous J'garde ma casquette tout le temps baissée jusqu'aux joues J'aime aller dans les clubs et danser jusqu'au jour Taguer sous les tours, draguer sous les tours Flâner sous les tours, mais bon, faut bosser tous les jours Même si ne réussissent qu'les escrocs ou ceux qu'ont beaucoup d'bol Le sang des innocents coule, j'ai besoin d'une boussole On me trouve trop vulgaire La radio prend le public comme un SDF, passe que d'la soupe populaire Mais Dan aura la casquette large Le jean tombant et mon DJ vous tourne le dos quand il scratche Hein, je les fait crier ''Oh! Ah! Ouais!'' Et même quand les critiques pleuvent, j'suis cool, j'ai le flow K-Way Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond même pas tu clash , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race Yeah, dur de m'griller en costard, Dyfrey un gros scarla J'accroche l'écran plasma au scotch marron Vas-y rammène mes grosses parts, vénèr comme Jo' Starr Des rimes de batard et des grosses paroles T'as l'oreille devant mon canon, t'aimes ça non? Le son te roule un palot et tu pé-fli sur le piano Genre de keumé trop colérique, ramème tes soss' je les nique J'suis cash à la Laurence Boccolini Yeah, en terme de son, y'a moins de claques et de crimes Les chanteurs de R'n'B se prennent des claques et des pines Dans l'équipe pas de péquenauds, ni pédés, que des frérots qu'ont trimé T'es mort v'là Ze Pequeno et Bené J'vais vous faire péter les plombs, premier au hit go Ballon d'or façon Shevchenko Yeah, si tu connais mon album, tu connais mon magnum Les faux ont formé des crews bah y en aura pour chaque membre Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race Pressé d'aller trop vite, parce qu'à la longue ça devient comique Te comparer à moi, c'est des cure-dents contre des brolics Tu vas encore m'entendre rapper Tuerie, du genre Sarkozy seul dans ma maison de quartier Sauvage est mon ethnie et tous les mecs qui Ne serait-ce que doutent de mon power prennent des rimes Jet Li Donc faites péter le Cristal Parce que essayer de stop ça sert à rien comme la troisième Destiny's Child Ouais lève ta main si tu aimes, j'suis en mission comme Kery James Pop te fait minimum jouir ou tu finis blême Peu m'importe le nombre de gens dans ton crew Re-noi tu suceras ta salive avec du sang dans ton goût Je m'suis frotté aux meilleurs d'entre eux, pas perdu une plume Ce n'est pas du rap, je n'ai que du pur jus de burne Et tu n'as pas envie d'avaler mon jet A moins d'avoir vu une chatte, j'comprends pourquoi tu m'regardais de biais Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses avec Deux MC's lourds Tu voulais du rap, maintenant qu'est-ce qu'il y a ? Tu danses à fond , maintenant qu'est-ce qu'il y a ? Tu danses à fond même dans ton boule Quand on chasse, maintenant qu'est-ce qu'il y a ? Va niquer ta race</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Every day in the life That's the way Hey yo Elle peut s'infiltrer dans vos foyers, vous broyer ou vous noyer Vous la voyez éloignée, elle est plus proche que vous croyez Elle est dans l'kif quand t'as pas graille et quand t'as pas d'maille Et quand t'as pas d'son-mai, qu't'es dehors, qu't'es en train d'cailler Un pare-balles n'est pas fiable à cent pourcents Même la vitesse d'un pur-sang, même si t'as pas ta ture-cein Souvent les puristes et les vrais gars la comparent à mon flow J'ai découpé des faux, chaud, la Faucheuse Elle m'a fait rire, pleurer, crise de folie, pisser au lit, trahir Être trahi, gagner perdre, je l'espère, grandir Elle m'a fait quitter l'Afrique P't-être y retournerai-je un jour pour y vieillir Et quitter ce triste monde qu'elle m'a fait découvrir Aimer, parfois haïr, elle m'a fait connaître J'dois le reconnaître, elle m'a fait jouir ma définition Partout où je vais, les gens savent qui j'suis Dis-moi qui peut m'avoir fait tout ça à part ma vie Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan You might also like Elle m'a fait rire pour un rien J'la kiffe comme une biatch car elle pousse ou Ralentit mon rythme cardiaque Et elle me fait raser les murs Cacher ma figure quand je dis bonjour J'parle d'ma weed, yo Freddy à ton tour Je le cache dans mes Timberland pour rentrer en boîte Je le cache dans cuir ou dans un côté de ma voiture Seul contre dix, je n'perdrai pas la face Je ne partirai pas seul, dédicace à mon schlass Elle m'a fait tromper la seule que j'aimais Elle m'a fait fumer ma première clope Et malgré l'sale goût, une deuxième et Elle m'a fait porter une arme et la sortir Elle m'a fait faire feu, j'regrette vieux J'parle de ma bêtise Elle m'a élargi la vision, elle m'a donné des coups Elle m'a couvé, elle m'a éduqué, elle m'a donné des sous Et elle coule dans mes veines comme mon bled en Afrique J'te parle de là où j'habite, elle me guide, la street Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan J'aime quand elle est bombée, quand me méfie d'elle comme un condé Le frotte sur moi pour me gronder les pommes bien rondes et Dans un brésilien ou ficelle foncée Là j'suis dans mon trip pervers, j'te parle de Beyoncé Hey yo, l'un est grand de taille, tu n'le verras jamais pioncer Si l'autre te provoque, tu ne pourras jamais broncher Ils ont pris les mêmes routes Adopté les mêmes looks Et les deux ont trop d'classe dans des Timberland Boots Ils sont tous casse-cou riment de partout Leur duo c'est façon les deux bâtons d'un nunchaku L'un est musclé l'autre est fin L'un allume et l'autre éteint C'est Ol' Kainry Dany Dan Ou bien juste le destin Il m'a fait n'plus calculer personne, ne considérer que lui Il a fait de moi un ermite, solitaire, scret-di Meurtrier j'suis devenu Et comme un fleuve pour un peuple du Tiers-Monde Il m'a fait peur quand il n'coulait plus, mon stylo Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan Every day in the life My definition Every day in the life My definition My definition That's the way Every day in the life Every day in the life Every day in the life That's the way</t>
+          <t>Every day in the life That's the way Hey yo Elle peut s'infiltrer dans vos foyers, vous broyer ou vous noyer Vous la voyez éloignée, elle est plus proche que vous croyez Elle est dans l'kif quand t'as pas graille et quand t'as pas d'maille Et quand t'as pas d'son-mai, qu't'es dehors, qu't'es en train d'cailler Un pare-balles n'est pas fiable à cent pourcents Même la vitesse d'un pur-sang, même si t'as pas ta ture-cein Souvent les puristes et les vrais gars la comparent à mon flow J'ai découpé des faux, chaud, la Faucheuse Elle m'a fait rire, pleurer, crise de folie, pisser au lit, trahir Être trahi, gagner perdre, je l'espère, grandir Elle m'a fait quitter l'Afrique P't-être y retournerai-je un jour pour y vieillir Et quitter ce triste monde qu'elle m'a fait découvrir Aimer, parfois haïr, elle m'a fait connaître J'dois le reconnaître, elle m'a fait jouir ma définition Partout où je vais, les gens savent qui j'suis Dis-moi qui peut m'avoir fait tout ça à part ma vie Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan Elle m'a fait rire pour un rien J'la kiffe comme une biatch car elle pousse ou Ralentit mon rythme cardiaque Et elle me fait raser les murs Cacher ma figure quand je dis bonjour J'parle d'ma weed, yo Freddy à ton tour Je le cache dans mes Timberland pour rentrer en boîte Je le cache dans cuir ou dans un côté de ma voiture Seul contre dix, je n'perdrai pas la face Je ne partirai pas seul, dédicace à mon schlass Elle m'a fait tromper la seule que j'aimais Elle m'a fait fumer ma première clope Et malgré l'sale goût, une deuxième et Elle m'a fait porter une arme et la sortir Elle m'a fait faire feu, j'regrette vieux J'parle de ma bêtise Elle m'a élargi la vision, elle m'a donné des coups Elle m'a couvé, elle m'a éduqué, elle m'a donné des sous Et elle coule dans mes veines comme mon bled en Afrique J'te parle de là où j'habite, elle me guide, la street Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan J'aime quand elle est bombée, quand me méfie d'elle comme un condé Le frotte sur moi pour me gronder les pommes bien rondes et Dans un brésilien ou ficelle foncée Là j'suis dans mon trip pervers, j'te parle de Beyoncé Hey yo, l'un est grand de taille, tu n'le verras jamais pioncer Si l'autre te provoque, tu ne pourras jamais broncher Ils ont pris les mêmes routes Adopté les mêmes looks Et les deux ont trop d'classe dans des Timberland Boots Ils sont tous casse-cou riment de partout Leur duo c'est façon les deux bâtons d'un nunchaku L'un est musclé l'autre est fin L'un allume et l'autre éteint C'est Ol' Kainry Dany Dan Ou bien juste le destin Il m'a fait n'plus calculer personne, ne considérer que lui Il a fait de moi un ermite, solitaire, scret-di Meurtrier j'suis devenu Et comme un fleuve pour un peuple du Tiers-Monde Il m'a fait peur quand il n'coulait plus, mon stylo Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life My definition Ma définition Every day in the life Au mic, v'là la punition, on tue le son That's the way Ol' Kainry et Dany Dan Every day in the life My definition Every day in the life My definition My definition That's the way Every day in the life Every day in the life Every day in the life That's the way</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Elle nous annonce le brouillard Mais elle brille comme une éclaircie J'me fais des films où j'fais des bails avec miss météo Miss Météo, tu nous annonces les solstices, les équinoxes Tu dis quand viendront les pluies, on t'suit, aucune équivoque Divine, tu m'parles de pleine lune, d'étoile filante, d'aurore boréale Dans des contrées lointaines pâles et immenses Une tempête approche, se forme en silence Le ciel est pourpre, les oiseaux fuient la France On les regarde, on kiffe mais on s'en fout Qui ? Nous la multitude, nous les hypocrites Nous les aveugles, nous les citadins égoïstes Mais Miss Météo tu persistes, regarder les signes Tu dis, tu montres sur la carte des tourbillons à 20 mille d'ici Les eaux du fleuves montent, mais le ciel est toujours azur Je n'regarde que tes formes, attendant la température Miss Météo ! Dans la grisaille le jour se lève, tu es dans ta robe toute lèg'Laissez moi je pousse mon rêve, kisse mes grosses et douces lèvres Que tout s'éteigne elle a le don, elle a le grain Charlotte Lebon, Louise Bourgoin Miss Météo, c'est toi qui m'habille le matin Quoi qu'il arrive je t'attends vas-y ma fille Dis moi mon destin Messagère des Dieux, au souffle doux Dis moi tout je ne peux qu'accepter Comme un grain de sable dans une marée Fantasmer n'est pas un crime cela m'fait oublier le climat Mon corps devient du ciment, j't'imagine un peu coquine et J'me fais des films comme un ado crado. J'assume Même aujourd'hui il fait vraiment pas beau. Mais t'assures Miss You might also like</t>
+          <t>Elle nous annonce le brouillard Mais elle brille comme une éclaircie J'me fais des films où j'fais des bails avec miss météo Miss Météo, tu nous annonces les solstices, les équinoxes Tu dis quand viendront les pluies, on t'suit, aucune équivoque Divine, tu m'parles de pleine lune, d'étoile filante, d'aurore boréale Dans des contrées lointaines pâles et immenses Une tempête approche, se forme en silence Le ciel est pourpre, les oiseaux fuient la France On les regarde, on kiffe mais on s'en fout Qui ? Nous la multitude, nous les hypocrites Nous les aveugles, nous les citadins égoïstes Mais Miss Météo tu persistes, regarder les signes Tu dis, tu montres sur la carte des tourbillons à 20 mille d'ici Les eaux du fleuves montent, mais le ciel est toujours azur Je n'regarde que tes formes, attendant la température Miss Météo ! Dans la grisaille le jour se lève, tu es dans ta robe toute lèg'Laissez moi je pousse mon rêve, kisse mes grosses et douces lèvres Que tout s'éteigne elle a le don, elle a le grain Charlotte Lebon, Louise Bourgoin Miss Météo, c'est toi qui m'habille le matin Quoi qu'il arrive je t'attends vas-y ma fille Dis moi mon destin Messagère des Dieux, au souffle doux Dis moi tout je ne peux qu'accepter Comme un grain de sable dans une marée Fantasmer n'est pas un crime cela m'fait oublier le climat Mon corps devient du ciment, j't'imagine un peu coquine et J'me fais des films comme un ado crado. J'assume Même aujourd'hui il fait vraiment pas beau. Mais t'assures Miss</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yeah, t'sais, même si ces fils de putain jactent et gazent Aucun loss ne peut mempêcher d'faire mon taf, mon cash Et puis j'rime à la folie et puis jéclate les tracks Les vitres teintées, jantes chromées et j'me tape des flashes Hier sous l'manteau, j'vendais mes tapes par box de dix Aujourd'hui j'suis en tête de gondole, à quand l'box-office Car j'ai bien lintention de tirer ma prime Genre si mes plans fonctionnent, ben vous aurez droit au livre et au film Comment veux-tu quje rappe sale si j'nai rien dans le bide J'dois payer les factures, donner à graille à ma kid J'ai des rimes de bâtard mais j'kicke pas dans le vide Si tu mveux sur un projet, donne-moi un peu de liquide Ma parole, pas d'doute j'assure mon job Et ma street team fera d'la ville une victime sur mon or Et je parle souvent d'argent, mais le frère est humble Retrouve-le zonant dans la jungle, seul, j'rappe tout en marchant On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz You might also like Jason Bourne, on parle cash, joue pas avec un félin Mon biz, j'ai besoin d'points comme le Paris Saint-Germain J'vais mettre un piano dans mon salon S'tu veux cambrioler chez moi, rafale, j'ai mis un tsunami dans mon canon Et si t'es pas content pour moi, reste enragé Les gos du show-biz me sucent la euq comme un dragée Si tu respectes mon biz, que t'es engagé Achète mes albums, interdit d'les télécharger Chaque jour, je fais fondre mes stocks, pousse mes finances Dany fait plein d'bruit bien qu'il bouge en silence Juste un fax, un phone, une caisse au coffre large Et dans l'quartier j'suis invisible, rien qu'le Don taffe Rien qu'je livre ma came, banque puis Rentre dans ma planque ou finit en club, ivre ou high J'marie le beat, puis pète la dot Chante d'abord pour mes frères mais mon public est un melting-pot On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz J'marchande, demi taro J'reste concentré, mes deux mains sur mon biz comme une voyante sur son jeu de tarot Ni pause, ni récréation J'suis constamment en calcul, j'taffe en dormant ou même en pleine pénétration Donc d'idées on n'est jamais à court C'est la génération DVD, donc sept-sept nos caméras tournent Je n'lâche rien, 'til I die, soldat faut s'battre J'veux mettre des portes de Lamborghini sur ma Golf IV Donc on kicke souvent la nuit, on mixe puis on presse Puis on sort, nique la crise de l'industrie du disque J'y pense même en cabine, mon skeud devenu platine Relax dans mon jacuzzi avec une jolie chabine Quand vient le frère nommé Dan, vous avez un problème L'histoire dira qu'pour arme, il n'avait qu'un poème Tous seul, à poil dans la jungle, même un lion je peux l'corriger C'est mon business, faire des euros on est obligés On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz Obligé, obligé, obligé Obligé, obligé, obligé Obligé, obligé, obligé Obligé, obligé, obligé</t>
+          <t>Yeah, t'sais, même si ces fils de putain jactent et gazent Aucun loss ne peut mempêcher d'faire mon taf, mon cash Et puis j'rime à la folie et puis jéclate les tracks Les vitres teintées, jantes chromées et j'me tape des flashes Hier sous l'manteau, j'vendais mes tapes par box de dix Aujourd'hui j'suis en tête de gondole, à quand l'box-office Car j'ai bien lintention de tirer ma prime Genre si mes plans fonctionnent, ben vous aurez droit au livre et au film Comment veux-tu quje rappe sale si j'nai rien dans le bide J'dois payer les factures, donner à graille à ma kid J'ai des rimes de bâtard mais j'kicke pas dans le vide Si tu mveux sur un projet, donne-moi un peu de liquide Ma parole, pas d'doute j'assure mon job Et ma street team fera d'la ville une victime sur mon or Et je parle souvent d'argent, mais le frère est humble Retrouve-le zonant dans la jungle, seul, j'rappe tout en marchant On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz Jason Bourne, on parle cash, joue pas avec un félin Mon biz, j'ai besoin d'points comme le Paris Saint-Germain J'vais mettre un piano dans mon salon S'tu veux cambrioler chez moi, rafale, j'ai mis un tsunami dans mon canon Et si t'es pas content pour moi, reste enragé Les gos du show-biz me sucent la euq comme un dragée Si tu respectes mon biz, que t'es engagé Achète mes albums, interdit d'les télécharger Chaque jour, je fais fondre mes stocks, pousse mes finances Dany fait plein d'bruit bien qu'il bouge en silence Juste un fax, un phone, une caisse au coffre large Et dans l'quartier j'suis invisible, rien qu'le Don taffe Rien qu'je livre ma came, banque puis Rentre dans ma planque ou finit en club, ivre ou high J'marie le beat, puis pète la dot Chante d'abord pour mes frères mais mon public est un melting-pot On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz J'marchande, demi taro J'reste concentré, mes deux mains sur mon biz comme une voyante sur son jeu de tarot Ni pause, ni récréation J'suis constamment en calcul, j'taffe en dormant ou même en pleine pénétration Donc d'idées on n'est jamais à court C'est la génération DVD, donc sept-sept nos caméras tournent Je n'lâche rien, 'til I die, soldat faut s'battre J'veux mettre des portes de Lamborghini sur ma Golf IV Donc on kicke souvent la nuit, on mixe puis on presse Puis on sort, nique la crise de l'industrie du disque J'y pense même en cabine, mon skeud devenu platine Relax dans mon jacuzzi avec une jolie chabine Quand vient le frère nommé Dan, vous avez un problème L'histoire dira qu'pour arme, il n'avait qu'un poème Tous seul, à poil dans la jungle, même un lion je peux l'corriger C'est mon business, faire des euros on est obligés On fait du business Obligé, obligé, obligé On est obligés au biz C'est que du business Obligé, obligé, obligé On est obligés au biz Obligé, obligé, obligé Obligé, obligé, obligé Obligé, obligé, obligé Obligé, obligé, obligé</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hey yo Dan, hey yo, on rampe avant de marcher On pense avant de parler, on fredonne avant de chanter On murmure avant d'embrasser, on caresse avant d'aimer On se protège avant de faire un truc irréversible qu'on peut regretter Un homme sage m'a dit Dany, vise avant de tirer Un autre plus sage de réfléchir avant d'acheter Un érudit m'a conseillé de lire pour m'endormir Avant je tirais sur un spliff, ça a fini par ne plus marcher Dany super fidèle avant souvent je les trompais Je lâche plus l'affaire avant pour rien je renonçais Mes sourcils se fronçait quand je pionçais, me disait mon ex Maintenant je souris parait-il et je chante des texte À la gloire des braves, à la gloire des putains À la gloire des esclaves, des rebelles, des mutins On rampe avant de marcher, on pense avant de parler On fredonne avant de chanter, on caresse avant d'aimer Je fais mon bonhomme de chemin, tête haute comme un bonhomme Jamais sûr du lendemain, que le bon dieu me pardonne I am waiting for the ring I am waiting for the ring Where is the love ? Yeah, la mélodie memprisonne, je regarde l'autre rive L'humanité déchire mon être alors je m'isole Où est la vérité dans toute cette folie que je visionne Combien vont se rendre compte qu'ils se cherchent encore sur XXX Mais où est le Love ? Soupir... A tout ceux qu'j'aime mais malgré tout qu'j'ai fais souffrir Il y a toujours pire , mais ça veut dire quoi ? Que je garde mon sourire même Nourrir l'espoir, de mourir heureux vieux Dans un monde ou même un raciste peut croire en Dieu Et tout ça passe crème, me lasse tellement Qui sont ceux qui haïssent et ceux qui t'aiment vraiment L'impression qu'une graine avait poussé en mon XXX Mais c'est la Walking Dead Purifie ton âme grandis-la j'ai vu ton arme range-la Ta life sauve-la, R.I.P à Nelson Mandela You might also like Je fais mon bonhomme de chemin, tête haute comme un bonhomme Jamais sûr du lendemain, que le bon dieu me pardonne I am waiting for the ring I am waiting for the ring Where is the love ?</t>
+          <t>Hey yo Dan, hey yo, on rampe avant de marcher On pense avant de parler, on fredonne avant de chanter On murmure avant d'embrasser, on caresse avant d'aimer On se protège avant de faire un truc irréversible qu'on peut regretter Un homme sage m'a dit Dany, vise avant de tirer Un autre plus sage de réfléchir avant d'acheter Un érudit m'a conseillé de lire pour m'endormir Avant je tirais sur un spliff, ça a fini par ne plus marcher Dany super fidèle avant souvent je les trompais Je lâche plus l'affaire avant pour rien je renonçais Mes sourcils se fronçait quand je pionçais, me disait mon ex Maintenant je souris parait-il et je chante des texte À la gloire des braves, à la gloire des putains À la gloire des esclaves, des rebelles, des mutins On rampe avant de marcher, on pense avant de parler On fredonne avant de chanter, on caresse avant d'aimer Je fais mon bonhomme de chemin, tête haute comme un bonhomme Jamais sûr du lendemain, que le bon dieu me pardonne I am waiting for the ring I am waiting for the ring Where is the love ? Yeah, la mélodie memprisonne, je regarde l'autre rive L'humanité déchire mon être alors je m'isole Où est la vérité dans toute cette folie que je visionne Combien vont se rendre compte qu'ils se cherchent encore sur XXX Mais où est le Love ? Soupir... A tout ceux qu'j'aime mais malgré tout qu'j'ai fais souffrir Il y a toujours pire , mais ça veut dire quoi ? Que je garde mon sourire même Nourrir l'espoir, de mourir heureux vieux Dans un monde ou même un raciste peut croire en Dieu Et tout ça passe crème, me lasse tellement Qui sont ceux qui haïssent et ceux qui t'aiment vraiment L'impression qu'une graine avait poussé en mon XXX Mais c'est la Walking Dead Purifie ton âme grandis-la j'ai vu ton arme range-la Ta life sauve-la, R.I.P à Nelson Mandela Je fais mon bonhomme de chemin, tête haute comme un bonhomme Jamais sûr du lendemain, que le bon dieu me pardonne I am waiting for the ring I am waiting for the ring Where is the love ?</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ils n'ont pas envie de moi Ils ne veulent pas m'affronter ligne contre ligne, ils ne veulent pas la vie en moins Personne n'a envie d'avoir Dan sur le dos Bouteille de champ' dans une main et dans l'autre poigne un micro Donc ils ne veulent pas que je passe le grade Car avec Dany, pas de couronne, avec moi les nègres embrassent la bague Et personne n'a envie de mon punch, j'envoie des jabs Satan se déplace pas, il envoie ses diables Non il ne veulent pas lancer d'roses , ad vitam aeternam Car ma salive est comme, j'sais pas si t'as vu Alien Quand j'ai les charmes, la caisse et la came Tu peux être sûr qu'ils ne veulent pas me présenter leurs femmes Ils ne veulent pas qu'on entende mes bobines J'suis comme Clark Kent, différent, dès que je ressort d'une cabine Ils imaginent pour me boycott' toutes sortes de combines Ils n'ont pas envie que je m'en sorte bande de bâtards C'est comme si j'étais dans un bac de crabes Et pour m'ôter l'envie de tuer, parfois j'cogne dans un sac de sable Dany est smoove et clean, que tu n'veux pas de blêmes Car mon crew fait comme les keufs sur Malik Oussekine On ne fait que pousser nos rimes, puis poser nos autographes Les jaloux détestent me voir poser pour le photographe C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa You might also like Dans mon île, y a des elles, mais je ndirai qui Ils veulent savoir si jai plusieurs styles et lesquels Ils veulent savoir doù je viens, ce qudoù je viens, où je vais Avec qui je traîne, ils veulent savoir les sous quje paie La route est pleine dembûches, les gagnants bougent en silence Mais comme tu le sais, tout ltemps les gens veulent savoir en plus Quen est-il des Sages Po, à quand lprochain album? Chez qui? Y a des featurings? Y a combien de morceaux? Les quelques-uns qui suivent ma course, quand je les croise Veulent savoir cqui sest passé avec le Beat 2 Boul Ils veulent savoir si je bluffe quand je dis qujsuis ouf Qui était cette meuf avec toi au sexy boul Ils veulent savoir qui jécoute, qui jaime, mais surtout qui je déteste Qui meffraie au mic, qui je nvoudrais jamais test Dans ltrom lautre fois, deux gars parlaient tout bas Genre, qui est lmeilleur MC, Zoxea Dany ou B... Ils veulent savoir si je peins encore les murs Et qui fait vraiment partie du disque dur Et doù me vient linspiration pour lécriture Ils veulent savoir qui je suis jen suis sûr C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa Ils aimeraient cramer Nouvelle Donne Mais ces salauds taffent en louce-dé, ces putes ne veulent pas que je les cogne Jpeux être enragé comme un dog Et si jreviens dans leur bureau, ils savent quils seront coincés dans les cordes Car personne ne me grille ou ne me pique le ballon Même le zoulou dans le RER quitte le wagon Restez cools ou vos slips seront marrons Tu nveux pas que jvienne à toi, car je jump comme dans Tigre et Dragon Et la gloire, ils nveulent pas que je latteigne Même si la mort fonce sur moi, ils ne veulent pas que je la freine Même Ophélie Winter ils ne veulent pas que je la ken Et de plus en plus de faux-culs viennent me passer de la crème De la pommade, hypocrisie dans laccolade Ils veulent me voir dead sous le préau de la promenade Grave te-bê, tous ensemble et rassemblés Parler des autres et se masturber, yeah Comment je gère mon biz et mes dépenses Y a-t-il déjà eu un biz avec Si lAgression Verbale, cest dead, si Rice-Mau va sortir de taule Cousin cest aps ton blème, paranoïa Même les petites bites, jte teste K-Maro prend des molards et joue les 50 Cent Regarde, y a tout là, on en voit de toutes les couleurs Des fois jflippe mais jrentre dedans, cest Ol Kainry Bouya x2 C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa</t>
+          <t>Ils n'ont pas envie de moi Ils ne veulent pas m'affronter ligne contre ligne, ils ne veulent pas la vie en moins Personne n'a envie d'avoir Dan sur le dos Bouteille de champ' dans une main et dans l'autre poigne un micro Donc ils ne veulent pas que je passe le grade Car avec Dany, pas de couronne, avec moi les nègres embrassent la bague Et personne n'a envie de mon punch, j'envoie des jabs Satan se déplace pas, il envoie ses diables Non il ne veulent pas lancer d'roses , ad vitam aeternam Car ma salive est comme, j'sais pas si t'as vu Alien Quand j'ai les charmes, la caisse et la came Tu peux être sûr qu'ils ne veulent pas me présenter leurs femmes Ils ne veulent pas qu'on entende mes bobines J'suis comme Clark Kent, différent, dès que je ressort d'une cabine Ils imaginent pour me boycott' toutes sortes de combines Ils n'ont pas envie que je m'en sorte bande de bâtards C'est comme si j'étais dans un bac de crabes Et pour m'ôter l'envie de tuer, parfois j'cogne dans un sac de sable Dany est smoove et clean, que tu n'veux pas de blêmes Car mon crew fait comme les keufs sur Malik Oussekine On ne fait que pousser nos rimes, puis poser nos autographes Les jaloux détestent me voir poser pour le photographe C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa Dans mon île, y a des elles, mais je ndirai qui Ils veulent savoir si jai plusieurs styles et lesquels Ils veulent savoir doù je viens, ce qudoù je viens, où je vais Avec qui je traîne, ils veulent savoir les sous quje paie La route est pleine dembûches, les gagnants bougent en silence Mais comme tu le sais, tout ltemps les gens veulent savoir en plus Quen est-il des Sages Po, à quand lprochain album? Chez qui? Y a des featurings? Y a combien de morceaux? Les quelques-uns qui suivent ma course, quand je les croise Veulent savoir cqui sest passé avec le Beat 2 Boul Ils veulent savoir si je bluffe quand je dis qujsuis ouf Qui était cette meuf avec toi au sexy boul Ils veulent savoir qui jécoute, qui jaime, mais surtout qui je déteste Qui meffraie au mic, qui je nvoudrais jamais test Dans ltrom lautre fois, deux gars parlaient tout bas Genre, qui est lmeilleur MC, Zoxea Dany ou B... Ils veulent savoir si je peins encore les murs Et qui fait vraiment partie du disque dur Et doù me vient linspiration pour lécriture Ils veulent savoir qui je suis jen suis sûr C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa Ils aimeraient cramer Nouvelle Donne Mais ces salauds taffent en louce-dé, ces putes ne veulent pas que je les cogne Jpeux être enragé comme un dog Et si jreviens dans leur bureau, ils savent quils seront coincés dans les cordes Car personne ne me grille ou ne me pique le ballon Même le zoulou dans le RER quitte le wagon Restez cools ou vos slips seront marrons Tu nveux pas que jvienne à toi, car je jump comme dans Tigre et Dragon Et la gloire, ils nveulent pas que je latteigne Même si la mort fonce sur moi, ils ne veulent pas que je la freine Même Ophélie Winter ils ne veulent pas que je la ken Et de plus en plus de faux-culs viennent me passer de la crème De la pommade, hypocrisie dans laccolade Ils veulent me voir dead sous le préau de la promenade Grave te-bê, tous ensemble et rassemblés Parler des autres et se masturber, yeah Comment je gère mon biz et mes dépenses Y a-t-il déjà eu un biz avec Si lAgression Verbale, cest dead, si Rice-Mau va sortir de taule Cousin cest aps ton blème, paranoïa Même les petites bites, jte teste K-Maro prend des molards et joue les 50 Cent Regarde, y a tout là, on en voit de toutes les couleurs Des fois jflippe mais jrentre dedans, cest Ol Kainry Bouya x2 C'est paranoïa Ouais, ouais, paranoïa Paranoïa Ouais, paranoïa</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Seulement ma convention Seulement mon équipe qu'on prenne le plan, prenne le temps T'es pas d'la famille ? On t'connais pas, t'entends ? Ils vont crever ! Han ! Ils pesent rien sur leur balance, aucune poudre, et tout ça ! On arrive et on a laissé assez le temps vacant pour ces rappeurs à la trompe ! PUTNEG ! Pourquoi t'es jaloux, me regarde mal comme si j't'avais volé ? On ne se connait même pas, on ne s'est jamais parlé Pourtant tu n'cesses de jacter mec, ça m'fait iech, ça m'fait tiep D'être obligé de conclure que tu n'es qu'une PUTNEG C'est relou mais des fois j'porte un flingue, cousin j'ai peur de voir mon corps s'éteindre Les zoulous viennent me test ensuite vont porter plainte Tellement vous angoissez que vos corps j'esquinte Voilà une gauche dans vos oreilles bande de PUTNEG V'là un pavé dans la mare d'MC, qui sucent des bites Dans les bureaux des radios Hip HopRB Aucune excuse pour ces pauvres neg', et tu peux faire des thunes Sans donner ton 'uc, sinon t'es qu'une PUTNEG You might also like J'pensais que c'était une cousine, la salope était trop laide Simple contrôle de routine et elle flambe devant ses collègues En rajoute beaucoup plus que d'hab', j'me retrouve en garde-à-v' Va t'faire enculer par Satan espèce de PUTNEG Renoi laisse ton gros nez épaté hors de mon biz Sors de mon diez, toujours en train d'espionner mes agissements Questionner mes potes, fouiner, farfouiller dans mes bottes fouille-merde, ou simplement PUTNEG Ces salauds aiment trop les ragots, aimeraient baiser ma go Dérober mon magot ou me critiquer en argot Ou, comme Robert, me griller en flag' sur une ado Si tu portes l'oeil, mets-toi un doigt espèce de PUTNEG sur ta bouche ! ! Et les keufs viennent te péter chez oit pendant qu'tu t'masturbes Menottes dans le dos, et l'inspecteur qui te frappe dur Et tu flanches comme un gros guignol, chante comme un rossignol Toutes les poucaves sont des PUTNEGS Tu fais l'malin quand tes potes sont présents car ce sont de dangereuses 'cailles Mais quand t'es seul, tes mots changent de style Car tu sais bien que solo tu mangerais le sable Vas-y molo, reste humble, les mecs disent que t'es qu'une PUTNEG Tu t'la racontes parce que t'es bonne, la poitrine en avant Tu n'as ni appart, ni job, ni gov', ni argent Et tu veux manger mes royalties ? Et ma Sacem Elle est folle là-celle, ce n'est vraiment qu'une PUTNEG Tu parles mal dans mon dos mais face-à-face tu me souris Tu m'check, me prends par l'épaule, j'me retourne, tu m'injuries Quelle est cette race neg ? Les murs ont des oreilles Ils me parlent frère ! Mais moi j'te dis en face t'es qu'une PUTNEG Si tu passes ton temps à parler, à cracher et à salir Arriver en face de moi, à me lécher et à pâlir T'inquiète j'te ferai pas la peau, encore un pseudo zoulou à la con Va t'faire enculer espèce de PUTNEG Tu sors d'une cité mais t'as réussi à bouger de là T'habites un quartier riche avec ta bitch et tu fais du cash Mais dès que tu croises ton ancien staff, tu fais celui qui les connais pas Pire, tu te caches ! J'ai un surnom pour toi PUTNEG1</t>
+          <t>Seulement ma convention Seulement mon équipe qu'on prenne le plan, prenne le temps T'es pas d'la famille ? On t'connais pas, t'entends ? Ils vont crever ! Han ! Ils pesent rien sur leur balance, aucune poudre, et tout ça ! On arrive et on a laissé assez le temps vacant pour ces rappeurs à la trompe ! PUTNEG ! Pourquoi t'es jaloux, me regarde mal comme si j't'avais volé ? On ne se connait même pas, on ne s'est jamais parlé Pourtant tu n'cesses de jacter mec, ça m'fait iech, ça m'fait tiep D'être obligé de conclure que tu n'es qu'une PUTNEG C'est relou mais des fois j'porte un flingue, cousin j'ai peur de voir mon corps s'éteindre Les zoulous viennent me test ensuite vont porter plainte Tellement vous angoissez que vos corps j'esquinte Voilà une gauche dans vos oreilles bande de PUTNEG V'là un pavé dans la mare d'MC, qui sucent des bites Dans les bureaux des radios Hip HopRB Aucune excuse pour ces pauvres neg', et tu peux faire des thunes Sans donner ton 'uc, sinon t'es qu'une PUTNEG J'pensais que c'était une cousine, la salope était trop laide Simple contrôle de routine et elle flambe devant ses collègues En rajoute beaucoup plus que d'hab', j'me retrouve en garde-à-v' Va t'faire enculer par Satan espèce de PUTNEG Renoi laisse ton gros nez épaté hors de mon biz Sors de mon diez, toujours en train d'espionner mes agissements Questionner mes potes, fouiner, farfouiller dans mes bottes fouille-merde, ou simplement PUTNEG Ces salauds aiment trop les ragots, aimeraient baiser ma go Dérober mon magot ou me critiquer en argot Ou, comme Robert, me griller en flag' sur une ado Si tu portes l'oeil, mets-toi un doigt espèce de PUTNEG sur ta bouche ! ! Et les keufs viennent te péter chez oit pendant qu'tu t'masturbes Menottes dans le dos, et l'inspecteur qui te frappe dur Et tu flanches comme un gros guignol, chante comme un rossignol Toutes les poucaves sont des PUTNEGS Tu fais l'malin quand tes potes sont présents car ce sont de dangereuses 'cailles Mais quand t'es seul, tes mots changent de style Car tu sais bien que solo tu mangerais le sable Vas-y molo, reste humble, les mecs disent que t'es qu'une PUTNEG Tu t'la racontes parce que t'es bonne, la poitrine en avant Tu n'as ni appart, ni job, ni gov', ni argent Et tu veux manger mes royalties ? Et ma Sacem Elle est folle là-celle, ce n'est vraiment qu'une PUTNEG Tu parles mal dans mon dos mais face-à-face tu me souris Tu m'check, me prends par l'épaule, j'me retourne, tu m'injuries Quelle est cette race neg ? Les murs ont des oreilles Ils me parlent frère ! Mais moi j'te dis en face t'es qu'une PUTNEG Si tu passes ton temps à parler, à cracher et à salir Arriver en face de moi, à me lécher et à pâlir T'inquiète j'te ferai pas la peau, encore un pseudo zoulou à la con Va t'faire enculer espèce de PUTNEG Tu sors d'une cité mais t'as réussi à bouger de là T'habites un quartier riche avec ta bitch et tu fais du cash Mais dès que tu croises ton ancien staff, tu fais celui qui les connais pas Pire, tu te caches ! J'ai un surnom pour toi PUTNEG1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Traverser les époques, traverser les époques Dans la Delorean Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Yeah, vous êtes en galère, là j'arrive en pleine forme en Air Jordan Boug'zer, on voit des Air Ball quand j'performe Ouais j'bouleverse, premier au top ten car direct je tomar J'troue l'derche, l'balai reste coincé dans vos rectum Juste une affaire d'hommes, tant pis si les frères dorment D'ici j'vois le dièze comme Queen B au Super Bowl On la joue pas négro , gagne cette finale J'ai tellement le barreau que mon zizi m'frappe le visage Et le flingue ne sera pas factice, j'suis artiste mais j'en fais pas trop Vous exagérez tous comme des femmes flics New level, j'vais pas tirer sur mes acquis J'ai pris 2-3 balles, j'ai la régénération rapide du style Donc si tu vises ne rate pas l'homme, le Black Stallone Braquez tout vos flash canon, j'kicke le truc en cascadant Trop d'MCs nuls à chier, ça passe pas l'ballon Pas d'talent, casse-toi tu pues et marche à l'ombre You might also like Dans la Delorean, à traverser les époques Oui leur dièze est pas mal, mais c'est pas la même étoffe Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent L'ami, tu n'es pas de ma classe J'suis comme un prof qui connait tout ses élèves Et toi ? T'es pas de ma classe Les mecs s'acharnent à te faire croire qu'ils sont gros dans l'crime Moi, plus l'instru est sale, plus le flow sort clean Infiniment patient, tapis dans l'ombre, vent de face En fait, j'agis comme un chasseur sans qu'j'le sache Beaucoup tirent en visant les jambes, d'autres visent la tête La plupart ne visent pas ils tirent en baissant la tête Moi je vise le cur, authentique voleur d'âmes Sous une étoile bleue, tel un spectre, rôdeur Dan Te laisseras avec des blessure roses et des cicatrices violettes Traumatismes et hématomes, même sans pistolet Mon micro suffit amplement la vérité blesse, la passion tue Écoute bien mon texte, me comprends-tu ? Nan ? Baow baow baow le bruit du flingue du tonton Ma femme me dit souvent que mon haleine sent la poudre à canon La lune est pleine et le drame se sent Si l'un d'entre vous fait l'zoulu, je le goom et je fais boire son sang Nous n'sommes pas conforme aux normes de votre rap actuel Des bougs de Baltimore, j'suis genre Avon Barksdale C'est d'la ppe-fra qu'on crave-bi, du JadaStyles P Prend la fuite dès qu't'entendras Quoi d'neuf Billy ? Devant vos corps sans vie, le mic' j'brandis Pop dans la surface et je régale d'une passe splendide Dany Da Vinci, Dany The Dog A 16 ans j'me f'sais appeler Dany Mac tout un symbole Plus tard je m'suis auto-proclamé le Pape de Boulogne En toute modestie, même quand je kicke des raps de surhomme J'suis parano, j'me méfie des traîtres, chaque César a son Brutus Chaque Jésus a son Judas, un traître y a pas plus rat Et je n'suis ni un empereur, ni un messie Juste un MC avec ses soucis, qui disparait sans Dans la Delorean, à traverser les époques Oui leur dièze est pas mal, mais c'est pas la même étoffe Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent</t>
+          <t>Traverser les époques, traverser les époques Dans la Delorean Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Yeah, vous êtes en galère, là j'arrive en pleine forme en Air Jordan Boug'zer, on voit des Air Ball quand j'performe Ouais j'bouleverse, premier au top ten car direct je tomar J'troue l'derche, l'balai reste coincé dans vos rectum Juste une affaire d'hommes, tant pis si les frères dorment D'ici j'vois le dièze comme Queen B au Super Bowl On la joue pas négro , gagne cette finale J'ai tellement le barreau que mon zizi m'frappe le visage Et le flingue ne sera pas factice, j'suis artiste mais j'en fais pas trop Vous exagérez tous comme des femmes flics New level, j'vais pas tirer sur mes acquis J'ai pris 2-3 balles, j'ai la régénération rapide du style Donc si tu vises ne rate pas l'homme, le Black Stallone Braquez tout vos flash canon, j'kicke le truc en cascadant Trop d'MCs nuls à chier, ça passe pas l'ballon Pas d'talent, casse-toi tu pues et marche à l'ombre Dans la Delorean, à traverser les époques Oui leur dièze est pas mal, mais c'est pas la même étoffe Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent L'ami, tu n'es pas de ma classe J'suis comme un prof qui connait tout ses élèves Et toi ? T'es pas de ma classe Les mecs s'acharnent à te faire croire qu'ils sont gros dans l'crime Moi, plus l'instru est sale, plus le flow sort clean Infiniment patient, tapis dans l'ombre, vent de face En fait, j'agis comme un chasseur sans qu'j'le sache Beaucoup tirent en visant les jambes, d'autres visent la tête La plupart ne visent pas ils tirent en baissant la tête Moi je vise le cur, authentique voleur d'âmes Sous une étoile bleue, tel un spectre, rôdeur Dan Te laisseras avec des blessure roses et des cicatrices violettes Traumatismes et hématomes, même sans pistolet Mon micro suffit amplement la vérité blesse, la passion tue Écoute bien mon texte, me comprends-tu ? Nan ? Baow baow baow le bruit du flingue du tonton Ma femme me dit souvent que mon haleine sent la poudre à canon La lune est pleine et le drame se sent Si l'un d'entre vous fait l'zoulu, je le goom et je fais boire son sang Nous n'sommes pas conforme aux normes de votre rap actuel Des bougs de Baltimore, j'suis genre Avon Barksdale C'est d'la ppe-fra qu'on crave-bi, du JadaStyles P Prend la fuite dès qu't'entendras Quoi d'neuf Billy ? Devant vos corps sans vie, le mic' j'brandis Pop dans la surface et je régale d'une passe splendide Dany Da Vinci, Dany The Dog A 16 ans j'me f'sais appeler Dany Mac tout un symbole Plus tard je m'suis auto-proclamé le Pape de Boulogne En toute modestie, même quand je kicke des raps de surhomme J'suis parano, j'me méfie des traîtres, chaque César a son Brutus Chaque Jésus a son Judas, un traître y a pas plus rat Et je n'suis ni un empereur, ni un messie Juste un MC avec ses soucis, qui disparait sans Dans la Delorean, à traverser les époques Oui leur dièze est pas mal, mais c'est pas la même étoffe Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent Quand les tontons flinguent, quand les tontons flinguent</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C'est dingue, c'est dingue, hé yo ouais Voici ma version de la poésie, aucune hypocrisie Le cur est grand ouvert, béant, comme une grande avenue de Paris La Boétie, le Parnasse, une prophétie m'a mis ici Sinon qu'est-ce que je ferais là observant les gens avec minutie Passe ma future femme ou mon prochain amour Rien n'est impossible, elle a l'air d'une princesse, moi d'un prince aussi Dany avec des diamants partout, crois-moi je n'ai aucun sosie Western moderne, un homme, une bagnole et un fusil Ma vie n'est qu'une symphonie, un hymne joyeux Y'a des moments tristes, interlude rude, d'autres soyeux Paris n'est plus assez grand pour moi, il me faut un autre royaume Destin étrange, j'y crois donc je fais le saut de l'ange Comme un pèlerin, plongeant dans les eaux glacées du Gange Un clandestin, grimpant sur un bateau vers la France Il m'arrivera ce qu'il m'arrivera, laisse-moi tenter ma chance Désolé si j'offense, laisse-moi tenter ma chance x2 Excuse-moi moi, miss, on mappelle Dan, j'suis un artiste Donc vas-y tente ta chance, mon gars tente ta chance Mon gars tente ta chance, crois-moi tente ta chance Papa tente ta chance, tente ta chance, tente ta chance Laisse le beat battre, mes mots marchés dessus comme mille pattes Autodidacte, ma première rime je m'suis dis c'est un miracle Comme le plus grand des dealers vendant son premier 10 sacs Un président sa première dissert', sa première rédac' Exact, tente ta chance Dany m'a dit l'oracle Je me cachais pour écrire au fond du parc Au loin, j'entendais mes potes rire, au nom d'une farce Plus loin un riverain crier Vous mempêchez de dormir ! sur un ton furax Et le sort s'en est mêlé, ce soir pas de mêlée Mes potes allaient répliquer mais la pluie s'est mise à tomber Une goutte, puis deux, puis trois, puis mille mais ce n'était pas la saison Le mec a tenté sa chance, les dieux lui donnaient raison Ainsi vont nos vies sous les cieux, de pôle en pôle en équilibre Délicat, rigide, relation entre les hommes Il faut tenter sa chance il faut forcer son destin Un jour j'ai vu une fille je l'ai abordée l'air de rien You might also like Excuse-moi moi, miss, on mappelle Dan, j'suis un artiste Donc vas-y tente ta chance, mon gars tente ta chance Mon gars tente ta chance, crois-moi tente ta chance Papa tente ta chance, tente ta chance, tente ta chance</t>
+          <t>C'est dingue, c'est dingue, hé yo ouais Voici ma version de la poésie, aucune hypocrisie Le cur est grand ouvert, béant, comme une grande avenue de Paris La Boétie, le Parnasse, une prophétie m'a mis ici Sinon qu'est-ce que je ferais là observant les gens avec minutie Passe ma future femme ou mon prochain amour Rien n'est impossible, elle a l'air d'une princesse, moi d'un prince aussi Dany avec des diamants partout, crois-moi je n'ai aucun sosie Western moderne, un homme, une bagnole et un fusil Ma vie n'est qu'une symphonie, un hymne joyeux Y'a des moments tristes, interlude rude, d'autres soyeux Paris n'est plus assez grand pour moi, il me faut un autre royaume Destin étrange, j'y crois donc je fais le saut de l'ange Comme un pèlerin, plongeant dans les eaux glacées du Gange Un clandestin, grimpant sur un bateau vers la France Il m'arrivera ce qu'il m'arrivera, laisse-moi tenter ma chance Désolé si j'offense, laisse-moi tenter ma chance x2 Excuse-moi moi, miss, on mappelle Dan, j'suis un artiste Donc vas-y tente ta chance, mon gars tente ta chance Mon gars tente ta chance, crois-moi tente ta chance Papa tente ta chance, tente ta chance, tente ta chance Laisse le beat battre, mes mots marchés dessus comme mille pattes Autodidacte, ma première rime je m'suis dis c'est un miracle Comme le plus grand des dealers vendant son premier 10 sacs Un président sa première dissert', sa première rédac' Exact, tente ta chance Dany m'a dit l'oracle Je me cachais pour écrire au fond du parc Au loin, j'entendais mes potes rire, au nom d'une farce Plus loin un riverain crier Vous mempêchez de dormir ! sur un ton furax Et le sort s'en est mêlé, ce soir pas de mêlée Mes potes allaient répliquer mais la pluie s'est mise à tomber Une goutte, puis deux, puis trois, puis mille mais ce n'était pas la saison Le mec a tenté sa chance, les dieux lui donnaient raison Ainsi vont nos vies sous les cieux, de pôle en pôle en équilibre Délicat, rigide, relation entre les hommes Il faut tenter sa chance il faut forcer son destin Un jour j'ai vu une fille je l'ai abordée l'air de rien Excuse-moi moi, miss, on mappelle Dan, j'suis un artiste Donc vas-y tente ta chance, mon gars tente ta chance Mon gars tente ta chance, crois-moi tente ta chance Papa tente ta chance, tente ta chance, tente ta chance</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Caille-ra quand faut, Caille-ra quand faut Caille-ra quand faut l'être J'ai du respect si t'en as et me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué Les pieds collés sur l'bitume, l'esprit en l'air, la rage au cur MC classé murder et v'là qu'la street nous suit en chur sanction J'cause pour les vrais, les frères et les surs Qui mettent au beurre leurs rents-pa et dans la rue fuck les 'steurs Toujours au frais, j'ai pas changé depuis l'premier maxi J'représente toujours les miens grand, malgré l'manque de radis Cherche pas, c'est par ici qu'ça s'passe CNL J'passe pour les vrais Et ceux qui cherchent à faire leur place au paradis Vrai comme Malcolm et le 23 des Chicago Bulls Face à dix hommes, je reste vrai, jamais j'recule J'suis vrai comme une scène de Nasir Jones Un clodo face à l'hiver sans oseille dans le dîns Un ex taulard, cinq heures du mat' j'soulève des cartons Une femme seule face aux factures et six gosses dans le salon Vrai, tel un innocent condamné Ou comme OJ Simpson pour Ol' Kainry et Dany Dan You might also like Yeah, la vérité éclate, t'inquiète même pas gars Les grosses putes vont s'faire chouara Et les scars-la en toc veulent paraître pour du vingt-quatre carats Tous finiront en galère façon Princesse Sarah Pseudo caille-ra, zoulou de la prairie Quand l'rap défouraille dans la street, c'est la de-mer et la sère-mi Derrière le mic, tu te fâches et tu clashes Dans la réalité du hood, tu te caches et tu traces Pute scarla Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué Toujours opé, j'ai pas l'temps d'faire d'la poésie Fils de pute parle-moi bien quand tu m'croises toi aussi J'ai assez d'adrénaline pour que tu t'braques J'blague pas quand j'kicke derrière le cro-mi Micro au poing, p'tite bourgeoise égarée À c'qu'il paraît, mon 48 fait marrer Toujours vrai comme une pierre bien taillée Putnègre, tu m'vois soumis, le style entre les fesses Alors qu'j'passe du temps à m'tuer sous la presse Les vrais s'font rares et les faux jouent les zoulous, ça m'fait rire laisse J'ramasse mes sous, j'prends deux-trois potes et après j'me tire Tout c'que j'dis j'le vis donc si c'est vrai à quoi bon mentir mais bon C'est pas avec une bastos que j'veux qu'on m'enterre BBL, est-ce que ma place j'la mérite? Ça fait neuf ans qu'j'ai l'rap dans la peau, en c'moment ça m'irrite Donc j'te propose un huit lourd comme un menhir Si t'aimes pas, ta mère la pute mon pote y a qu'moi qu'est dans mon délire Les mecs veulent toujours plus qu'la dose Que je donne, car ça sonne quand le beat et ma voix s'juxtaposent Qui tu connais, blesse quiconque Un sourire en coin flash Mais c'est pas qu'j'aime cogner, c'est qu'ma folie vaut du cash J'prends cette merde comme le jeu de la mort Et monte les marches par quatre Un seize en poche et j'suis un marchand d'armes Genre paye-moi ou nique-toi, pas de marchandage Je n'veux qu'mes royautés, mon per diem et mon pourcentage Viens pas inverser garçon, on s'connaît depuis le berceau J'arrive en boule-dé, éclater froisse ce morceau symphoniques, la valeur de mon verset Averse de rimes sur la version V'là du renfort en force, j'te l'dis en vérité en fait Enfin du vrai rap français Pur MC ah oui, apprécie avant d'me remercier J'm'adresse à qui, à tout l'monde, à l'univers au globe Mon CNL j'englobe Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué</t>
+          <t>Caille-ra quand faut, Caille-ra quand faut Caille-ra quand faut l'être J'ai du respect si t'en as et me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué Les pieds collés sur l'bitume, l'esprit en l'air, la rage au cur MC classé murder et v'là qu'la street nous suit en chur sanction J'cause pour les vrais, les frères et les surs Qui mettent au beurre leurs rents-pa et dans la rue fuck les 'steurs Toujours au frais, j'ai pas changé depuis l'premier maxi J'représente toujours les miens grand, malgré l'manque de radis Cherche pas, c'est par ici qu'ça s'passe CNL J'passe pour les vrais Et ceux qui cherchent à faire leur place au paradis Vrai comme Malcolm et le 23 des Chicago Bulls Face à dix hommes, je reste vrai, jamais j'recule J'suis vrai comme une scène de Nasir Jones Un clodo face à l'hiver sans oseille dans le dîns Un ex taulard, cinq heures du mat' j'soulève des cartons Une femme seule face aux factures et six gosses dans le salon Vrai, tel un innocent condamné Ou comme OJ Simpson pour Ol' Kainry et Dany Dan Yeah, la vérité éclate, t'inquiète même pas gars Les grosses putes vont s'faire chouara Et les scars-la en toc veulent paraître pour du vingt-quatre carats Tous finiront en galère façon Princesse Sarah Pseudo caille-ra, zoulou de la prairie Quand l'rap défouraille dans la street, c'est la de-mer et la sère-mi Derrière le mic, tu te fâches et tu clashes Dans la réalité du hood, tu te caches et tu traces Pute scarla Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué Toujours opé, j'ai pas l'temps d'faire d'la poésie Fils de pute parle-moi bien quand tu m'croises toi aussi J'ai assez d'adrénaline pour que tu t'braques J'blague pas quand j'kicke derrière le cro-mi Micro au poing, p'tite bourgeoise égarée À c'qu'il paraît, mon 48 fait marrer Toujours vrai comme une pierre bien taillée Putnègre, tu m'vois soumis, le style entre les fesses Alors qu'j'passe du temps à m'tuer sous la presse Les vrais s'font rares et les faux jouent les zoulous, ça m'fait rire laisse J'ramasse mes sous, j'prends deux-trois potes et après j'me tire Tout c'que j'dis j'le vis donc si c'est vrai à quoi bon mentir mais bon C'est pas avec une bastos que j'veux qu'on m'enterre BBL, est-ce que ma place j'la mérite? Ça fait neuf ans qu'j'ai l'rap dans la peau, en c'moment ça m'irrite Donc j'te propose un huit lourd comme un menhir Si t'aimes pas, ta mère la pute mon pote y a qu'moi qu'est dans mon délire Les mecs veulent toujours plus qu'la dose Que je donne, car ça sonne quand le beat et ma voix s'juxtaposent Qui tu connais, blesse quiconque Un sourire en coin flash Mais c'est pas qu'j'aime cogner, c'est qu'ma folie vaut du cash J'prends cette merde comme le jeu de la mort Et monte les marches par quatre Un seize en poche et j'suis un marchand d'armes Genre paye-moi ou nique-toi, pas de marchandage Je n'veux qu'mes royautés, mon per diem et mon pourcentage Viens pas inverser garçon, on s'connaît depuis le berceau J'arrive en boule-dé, éclater froisse ce morceau symphoniques, la valeur de mon verset Averse de rimes sur la version V'là du renfort en force, j'te l'dis en vérité en fait Enfin du vrai rap français Pur MC ah oui, apprécie avant d'me remercier J'm'adresse à qui, à tout l'monde, à l'univers au globe Mon CNL j'englobe Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Me trahir serait risqué Caille-ra quand faut l'être Caille-ra, caille-ra quand faut l'être Je sais qui est qui donc ça fait de toi un type niqué</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Voici mon passager obscur Mon flingue est grillé sous mon costume J'vous livre de la drogue dure Le glock fume J'vous crible et vous torture de morsures Je kick et je kick et j'vais pas trop parler J't'explique et je te dis que je suis armé Torse nu je déboule sur ma Harley Coup d'feu, puncline, charley En solo dans la street j'ramène pas la team Qui sont ceux qui veulent stopper la machine Je boxe, je cross la chose à la racine Du même côté qu'mon boug-zer Anakin J'arrive d'en dessous J'rends les coups homme fou T'es ri-pou tu bicrave, c'est qu'tu prends mes sous Rendez tout, rendez tout, rendez tout Ou encaissez la technique de l'homme saoul Qui tu connais comme moi Old school, New School Non la n'est pas la question Il ne s'agit que de faire le taff' Fais le taff, fais le taff, fais le You might also like Angélique et démoniaque en même temps J'ai deux cornes et une auréole en même temps Peintre, artiste et vandale en même temps Moine soldat, je tire et prie en même temps J'ai fait des dégâts dans l'passé, j'en fais maintenant On m'demande comment tu fais ça ?, je dis en maintenant Les mecs veulent m'imiter micro en main nan Laisse tomber entraîne toi, recommence demain nan Saluez le prince des ténèbres Quand j'l'ouvre je tue donc j'pince pas mes lèvres Old school comme un pantalon à pinces pattes d'éléph' New school, depuis le collège j'suis le prince pas l'élève Tu captes, new school le principal, lélève J'n'suis pas un pion, mais quand j'n'apprécie pas j'me lève Il fouette au nom du merveilleux flow Ol' Dan' il n's'agit qu'de faire le show 1</t>
+          <t>Voici mon passager obscur Mon flingue est grillé sous mon costume J'vous livre de la drogue dure Le glock fume J'vous crible et vous torture de morsures Je kick et je kick et j'vais pas trop parler J't'explique et je te dis que je suis armé Torse nu je déboule sur ma Harley Coup d'feu, puncline, charley En solo dans la street j'ramène pas la team Qui sont ceux qui veulent stopper la machine Je boxe, je cross la chose à la racine Du même côté qu'mon boug-zer Anakin J'arrive d'en dessous J'rends les coups homme fou T'es ri-pou tu bicrave, c'est qu'tu prends mes sous Rendez tout, rendez tout, rendez tout Ou encaissez la technique de l'homme saoul Qui tu connais comme moi Old school, New School Non la n'est pas la question Il ne s'agit que de faire le taff' Fais le taff, fais le taff, fais le Angélique et démoniaque en même temps J'ai deux cornes et une auréole en même temps Peintre, artiste et vandale en même temps Moine soldat, je tire et prie en même temps J'ai fait des dégâts dans l'passé, j'en fais maintenant On m'demande comment tu fais ça ?, je dis en maintenant Les mecs veulent m'imiter micro en main nan Laisse tomber entraîne toi, recommence demain nan Saluez le prince des ténèbres Quand j'l'ouvre je tue donc j'pince pas mes lèvres Old school comme un pantalon à pinces pattes d'éléph' New school, depuis le collège j'suis le prince pas l'élève Tu captes, new school le principal, lélève J'n'suis pas un pion, mais quand j'n'apprécie pas j'me lève Il fouette au nom du merveilleux flow Ol' Dan' il n's'agit qu'de faire le show 1</t>
         </is>
       </c>
     </row>
